--- a/NEW HR/RODRIGUEZ, NARCISO ENRIQUEZ.xlsx
+++ b/NEW HR/RODRIGUEZ, NARCISO ENRIQUEZ.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-44REB32\Users\ASUS\Desktop\LEAVECARD\NEW HR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="90">
   <si>
     <t>PERIOD</t>
   </si>
@@ -303,6 +303,9 @@
   </si>
   <si>
     <t>7/19,24/2022</t>
+  </si>
+  <si>
+    <t>3/18-20/2023</t>
   </si>
 </sst>
 </file>
@@ -1265,7 +1268,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A8:K75" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A8:K76" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
@@ -1597,9 +1600,9 @@
   <dimension ref="A2:K96"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3570" topLeftCell="A70" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A70" activePane="bottomLeft"/>
       <selection activeCell="E9" sqref="E9"/>
-      <selection pane="bottomLeft" activeCell="F72" sqref="F72"/>
+      <selection pane="bottomLeft" activeCell="D93" sqref="D93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1760,7 +1763,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])</f>
-        <v>55.5</v>
+        <v>56.75</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -1770,7 +1773,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])</f>
-        <v>77.5</v>
+        <v>78.75</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -3171,13 +3174,15 @@
         <v>44986</v>
       </c>
       <c r="B78" s="20"/>
-      <c r="C78" s="13"/>
+      <c r="C78" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D78" s="37"/>
       <c r="E78" s="9"/>
       <c r="F78" s="20"/>
-      <c r="G78" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G78" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H78" s="37"/>
       <c r="I78" s="9"/>
@@ -3537,12 +3542,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K75"/>
+  <dimension ref="A2:K76"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A39" activePane="bottomLeft"/>
       <selection activeCell="E9" sqref="E9"/>
-      <selection pane="bottomLeft" activeCell="H56" sqref="H56"/>
+      <selection pane="bottomLeft" activeCell="D59" sqref="D59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3703,7 +3708,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>136.114</v>
+        <v>133.114</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3713,7 +3718,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>61.957999999999998</v>
+        <v>60.957999999999998</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -4774,7 +4779,9 @@
       <c r="A57" s="38">
         <v>44986</v>
       </c>
-      <c r="B57" s="20"/>
+      <c r="B57" s="20" t="s">
+        <v>49</v>
+      </c>
       <c r="C57" s="13"/>
       <c r="D57" s="37"/>
       <c r="E57" s="9"/>
@@ -4783,18 +4790,24 @@
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H57" s="37"/>
+      <c r="H57" s="37">
+        <v>1</v>
+      </c>
       <c r="I57" s="9"/>
       <c r="J57" s="11"/>
-      <c r="K57" s="20"/>
+      <c r="K57" s="45">
+        <v>44989</v>
+      </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A58" s="38">
-        <v>45017</v>
-      </c>
-      <c r="B58" s="20"/>
+      <c r="A58" s="38"/>
+      <c r="B58" s="20" t="s">
+        <v>45</v>
+      </c>
       <c r="C58" s="13"/>
-      <c r="D58" s="37"/>
+      <c r="D58" s="37">
+        <v>3</v>
+      </c>
       <c r="E58" s="9"/>
       <c r="F58" s="20"/>
       <c r="G58" s="13" t="str">
@@ -4804,11 +4817,13 @@
       <c r="H58" s="37"/>
       <c r="I58" s="9"/>
       <c r="J58" s="11"/>
-      <c r="K58" s="20"/>
+      <c r="K58" s="45" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="38">
-        <v>45047</v>
+        <v>45017</v>
       </c>
       <c r="B59" s="20"/>
       <c r="C59" s="13"/>
@@ -4826,7 +4841,7 @@
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="38">
-        <v>45078</v>
+        <v>45047</v>
       </c>
       <c r="B60" s="20"/>
       <c r="C60" s="13"/>
@@ -4844,7 +4859,7 @@
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="38">
-        <v>45108</v>
+        <v>45078</v>
       </c>
       <c r="B61" s="20"/>
       <c r="C61" s="13"/>
@@ -4862,7 +4877,7 @@
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="38">
-        <v>45139</v>
+        <v>45108</v>
       </c>
       <c r="B62" s="20"/>
       <c r="C62" s="13"/>
@@ -4880,7 +4895,7 @@
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="38">
-        <v>45170</v>
+        <v>45139</v>
       </c>
       <c r="B63" s="20"/>
       <c r="C63" s="13"/>
@@ -4898,7 +4913,7 @@
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="38">
-        <v>45200</v>
+        <v>45170</v>
       </c>
       <c r="B64" s="20"/>
       <c r="C64" s="13"/>
@@ -4916,7 +4931,7 @@
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="38">
-        <v>45231</v>
+        <v>45200</v>
       </c>
       <c r="B65" s="20"/>
       <c r="C65" s="13"/>
@@ -4934,7 +4949,7 @@
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="38">
-        <v>45261</v>
+        <v>45231</v>
       </c>
       <c r="B66" s="20"/>
       <c r="C66" s="13"/>
@@ -4952,7 +4967,7 @@
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="38">
-        <v>45292</v>
+        <v>45261</v>
       </c>
       <c r="B67" s="20"/>
       <c r="C67" s="13"/>
@@ -4969,7 +4984,9 @@
       <c r="K67" s="20"/>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A68" s="38"/>
+      <c r="A68" s="38">
+        <v>45292</v>
+      </c>
       <c r="B68" s="20"/>
       <c r="C68" s="13"/>
       <c r="D68" s="37"/>
@@ -5081,34 +5098,50 @@
       <c r="K74" s="20"/>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A75" s="39"/>
-      <c r="B75" s="15"/>
-      <c r="C75" s="40"/>
-      <c r="D75" s="41"/>
+      <c r="A75" s="38"/>
+      <c r="B75" s="20"/>
+      <c r="C75" s="13"/>
+      <c r="D75" s="37"/>
       <c r="E75" s="9"/>
-      <c r="F75" s="15"/>
-      <c r="G75" s="40" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H75" s="41"/>
+      <c r="F75" s="20"/>
+      <c r="G75" s="13" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H75" s="37"/>
       <c r="I75" s="9"/>
-      <c r="J75" s="12"/>
-      <c r="K75" s="15"/>
+      <c r="J75" s="11"/>
+      <c r="K75" s="20"/>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A76" s="39"/>
+      <c r="B76" s="15"/>
+      <c r="C76" s="40"/>
+      <c r="D76" s="41"/>
+      <c r="E76" s="9"/>
+      <c r="F76" s="15"/>
+      <c r="G76" s="40" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H76" s="41"/>
+      <c r="I76" s="9"/>
+      <c r="J76" s="12"/>
+      <c r="K76" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">

--- a/NEW HR/RODRIGUEZ, NARCISO ENRIQUEZ.xlsx
+++ b/NEW HR/RODRIGUEZ, NARCISO ENRIQUEZ.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30939811-2BB8-4B49-8C95-A1434EE904CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2018 LEAVE CREDITS" sheetId="1" r:id="rId1"/>
@@ -26,7 +27,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'2017 LEAVE BALANCE'!$1:$9</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'2018 LEAVE CREDITS'!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="91">
   <si>
     <t>PERIOD</t>
   </si>
@@ -306,12 +307,15 @@
   </si>
   <si>
     <t>3/18-20/2023</t>
+  </si>
+  <si>
+    <t>TOTAL LEAVE BALANCE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1238,25 +1242,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K96" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K97" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="25"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="24"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="23"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="22"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="21">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="25"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="24"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="23"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="22"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="21">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="20"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="19">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="20"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="19">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="18"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="17">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="18"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="17">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="16"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="15"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="16"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1268,25 +1272,25 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A8:K76" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table13" displayName="Table13" ref="A8:K76" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1593,34 +1597,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K96"/>
+  <dimension ref="A2:K97"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A70" activePane="bottomLeft"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3696" topLeftCell="A43" activePane="bottomLeft"/>
       <selection activeCell="E9" sqref="E9"/>
-      <selection pane="bottomLeft" activeCell="D93" sqref="D93"/>
+      <selection pane="bottomLeft" activeCell="C79" sqref="C79"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -1641,7 +1645,7 @@
       <c r="J2" s="52"/>
       <c r="K2" s="53"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -1661,7 +1665,7 @@
       <c r="J3" s="54"/>
       <c r="K3" s="55"/>
     </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -1681,7 +1685,7 @@
       <c r="J4" s="52"/>
       <c r="K4" s="53"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -1689,7 +1693,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -1702,7 +1706,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="50" t="s">
@@ -1719,7 +1723,7 @@
       <c r="J7" s="50"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -1754,7 +1758,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -1763,7 +1767,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])</f>
-        <v>56.75</v>
+        <v>54.75</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -1778,7 +1782,7 @@
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="44" t="s">
         <v>44</v>
       </c>
@@ -1800,7 +1804,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="38">
         <v>43101</v>
       </c>
@@ -1820,7 +1824,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="38">
         <v>43132</v>
       </c>
@@ -1840,7 +1844,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="38">
         <v>43160</v>
       </c>
@@ -1860,7 +1864,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="38">
         <v>43191</v>
       </c>
@@ -1880,7 +1884,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="38">
         <v>43221</v>
       </c>
@@ -1900,7 +1904,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="38">
         <v>43252</v>
       </c>
@@ -1920,7 +1924,7 @@
       <c r="J16" s="11"/>
       <c r="K16" s="20"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="38">
         <v>43282</v>
       </c>
@@ -1940,7 +1944,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="38">
         <v>43313</v>
       </c>
@@ -1960,7 +1964,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="38">
         <v>43344</v>
       </c>
@@ -1980,7 +1984,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="45"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="38">
         <v>43374</v>
       </c>
@@ -2006,7 +2010,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="38">
         <v>43405</v>
       </c>
@@ -2026,7 +2030,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="38">
         <v>43435</v>
       </c>
@@ -2046,7 +2050,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="44" t="s">
         <v>60</v>
       </c>
@@ -2064,7 +2068,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="38">
         <v>43466</v>
       </c>
@@ -2084,7 +2088,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="38">
         <v>43497</v>
       </c>
@@ -2110,7 +2114,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="38">
         <v>43525</v>
       </c>
@@ -2130,7 +2134,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="38">
         <v>43556</v>
       </c>
@@ -2150,7 +2154,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="38">
         <v>43586</v>
       </c>
@@ -2170,7 +2174,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="38">
         <v>43617</v>
       </c>
@@ -2190,7 +2194,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="38">
         <v>43647</v>
       </c>
@@ -2210,7 +2214,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="38">
         <v>43678</v>
       </c>
@@ -2230,7 +2234,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="45"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="38">
         <v>43709</v>
       </c>
@@ -2250,7 +2254,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="45"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="38">
         <v>43739</v>
       </c>
@@ -2270,7 +2274,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="38">
         <v>43770</v>
       </c>
@@ -2290,7 +2294,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="45"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="38">
         <v>43800</v>
       </c>
@@ -2310,7 +2314,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="45"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="44" t="s">
         <v>67</v>
       </c>
@@ -2328,7 +2332,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="38">
         <v>43831</v>
       </c>
@@ -2348,7 +2352,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="45"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="38">
         <v>43862</v>
       </c>
@@ -2368,7 +2372,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="38">
         <v>43891</v>
       </c>
@@ -2394,7 +2398,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="38">
         <v>43922</v>
       </c>
@@ -2414,7 +2418,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="38">
         <v>43952</v>
       </c>
@@ -2434,7 +2438,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="38">
         <v>43983</v>
       </c>
@@ -2454,7 +2458,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="38">
         <v>44013</v>
       </c>
@@ -2474,7 +2478,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="38">
         <v>44044</v>
       </c>
@@ -2494,7 +2498,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="45"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="38">
         <v>44075</v>
       </c>
@@ -2514,7 +2518,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="38">
         <v>44105</v>
       </c>
@@ -2534,7 +2538,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="38">
         <v>44136</v>
       </c>
@@ -2554,7 +2558,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="38">
         <v>44166</v>
       </c>
@@ -2578,7 +2582,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="44" t="s">
         <v>75</v>
       </c>
@@ -2596,7 +2600,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="38">
         <v>44197</v>
       </c>
@@ -2616,7 +2620,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="38">
         <v>44228</v>
       </c>
@@ -2636,7 +2640,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="38">
         <v>44256</v>
       </c>
@@ -2656,7 +2660,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="38">
         <v>44287</v>
       </c>
@@ -2676,7 +2680,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="38">
         <v>44317</v>
       </c>
@@ -2696,7 +2700,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="38">
         <v>44348</v>
       </c>
@@ -2716,7 +2720,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="45"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="38">
         <v>44378</v>
       </c>
@@ -2736,7 +2740,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="38">
         <v>44409</v>
       </c>
@@ -2756,7 +2760,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="38">
         <v>44440</v>
       </c>
@@ -2776,7 +2780,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="38">
         <v>44470</v>
       </c>
@@ -2796,7 +2800,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="38">
         <v>44501</v>
       </c>
@@ -2816,7 +2820,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="38">
         <v>44531</v>
       </c>
@@ -2842,13 +2846,15 @@
         <v>78</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A62" s="44" t="s">
-        <v>79</v>
-      </c>
-      <c r="B62" s="20"/>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A62" s="38"/>
+      <c r="B62" s="20" t="s">
+        <v>74</v>
+      </c>
       <c r="C62" s="13"/>
-      <c r="D62" s="37"/>
+      <c r="D62" s="37">
+        <v>2</v>
+      </c>
       <c r="E62" s="9"/>
       <c r="F62" s="20"/>
       <c r="G62" s="13" t="str">
@@ -2860,30 +2866,27 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A63" s="38">
-        <v>44562</v>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A63" s="44" t="s">
+        <v>79</v>
       </c>
       <c r="B63" s="20"/>
-      <c r="C63" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="C63" s="13"/>
       <c r="D63" s="37"/>
       <c r="E63" s="9"/>
       <c r="F63" s="20"/>
-      <c r="G63" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G63" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H63" s="37"/>
       <c r="I63" s="9"/>
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="38">
-        <f>EDATE(A63,1)</f>
-        <v>44593</v>
+        <v>44562</v>
       </c>
       <c r="B64" s="20"/>
       <c r="C64" s="13">
@@ -2901,10 +2904,10 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="38">
-        <f t="shared" ref="A65:A70" si="0">EDATE(A64,1)</f>
-        <v>44621</v>
+        <f>EDATE(A64,1)</f>
+        <v>44593</v>
       </c>
       <c r="B65" s="20"/>
       <c r="C65" s="13">
@@ -2922,10 +2925,10 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="38">
-        <f t="shared" si="0"/>
-        <v>44652</v>
+        <f t="shared" ref="A66:A71" si="0">EDATE(A65,1)</f>
+        <v>44621</v>
       </c>
       <c r="B66" s="20"/>
       <c r="C66" s="13">
@@ -2943,10 +2946,10 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="38">
         <f t="shared" si="0"/>
-        <v>44682</v>
+        <v>44652</v>
       </c>
       <c r="B67" s="20"/>
       <c r="C67" s="13">
@@ -2964,10 +2967,10 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="38">
         <f t="shared" si="0"/>
-        <v>44713</v>
+        <v>44682</v>
       </c>
       <c r="B68" s="20"/>
       <c r="C68" s="13">
@@ -2985,10 +2988,10 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="38">
         <f t="shared" si="0"/>
-        <v>44743</v>
+        <v>44713</v>
       </c>
       <c r="B69" s="20"/>
       <c r="C69" s="13">
@@ -3006,10 +3009,10 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="38">
         <f t="shared" si="0"/>
-        <v>44774</v>
+        <v>44743</v>
       </c>
       <c r="B70" s="20"/>
       <c r="C70" s="13">
@@ -3027,9 +3030,10 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="38">
-        <v>44805</v>
+        <f t="shared" si="0"/>
+        <v>44774</v>
       </c>
       <c r="B71" s="20"/>
       <c r="C71" s="13">
@@ -3047,9 +3051,9 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="38">
-        <v>44835</v>
+        <v>44805</v>
       </c>
       <c r="B72" s="20"/>
       <c r="C72" s="13">
@@ -3065,11 +3069,11 @@
       <c r="H72" s="37"/>
       <c r="I72" s="9"/>
       <c r="J72" s="11"/>
-      <c r="K72" s="45"/>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K72" s="20"/>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="38">
-        <v>44866</v>
+        <v>44835</v>
       </c>
       <c r="B73" s="20"/>
       <c r="C73" s="13">
@@ -3085,21 +3089,17 @@
       <c r="H73" s="37"/>
       <c r="I73" s="9"/>
       <c r="J73" s="11"/>
-      <c r="K73" s="20"/>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K73" s="45"/>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="38">
-        <v>44896</v>
-      </c>
-      <c r="B74" s="20" t="s">
-        <v>86</v>
-      </c>
+        <v>44866</v>
+      </c>
+      <c r="B74" s="20"/>
       <c r="C74" s="13">
         <v>1.25</v>
       </c>
-      <c r="D74" s="37">
-        <v>5</v>
-      </c>
+      <c r="D74" s="37"/>
       <c r="E74" s="9"/>
       <c r="F74" s="20"/>
       <c r="G74" s="13">
@@ -3111,47 +3111,51 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A75" s="44" t="s">
-        <v>84</v>
-      </c>
-      <c r="B75" s="20"/>
-      <c r="C75" s="13"/>
-      <c r="D75" s="37"/>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A75" s="38">
+        <v>44896</v>
+      </c>
+      <c r="B75" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="C75" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D75" s="37">
+        <v>5</v>
+      </c>
       <c r="E75" s="9"/>
       <c r="F75" s="20"/>
-      <c r="G75" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G75" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H75" s="37"/>
       <c r="I75" s="9"/>
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A76" s="38">
-        <v>44927</v>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A76" s="44" t="s">
+        <v>84</v>
       </c>
       <c r="B76" s="20"/>
-      <c r="C76" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="C76" s="13"/>
       <c r="D76" s="37"/>
       <c r="E76" s="9"/>
       <c r="F76" s="20"/>
-      <c r="G76" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G76" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H76" s="37"/>
       <c r="I76" s="9"/>
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="38">
-        <v>44958</v>
+        <v>44927</v>
       </c>
       <c r="B77" s="20"/>
       <c r="C77" s="13">
@@ -3169,9 +3173,9 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="38">
-        <v>44986</v>
+        <v>44958</v>
       </c>
       <c r="B78" s="20"/>
       <c r="C78" s="13">
@@ -3189,27 +3193,29 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="38">
-        <v>45017</v>
+        <v>44986</v>
       </c>
       <c r="B79" s="20"/>
-      <c r="C79" s="13"/>
+      <c r="C79" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D79" s="37"/>
       <c r="E79" s="9"/>
       <c r="F79" s="20"/>
-      <c r="G79" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G79" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H79" s="37"/>
       <c r="I79" s="9"/>
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="38">
-        <v>45047</v>
+        <v>45017</v>
       </c>
       <c r="B80" s="20"/>
       <c r="C80" s="13"/>
@@ -3225,9 +3231,9 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="38">
-        <v>45078</v>
+        <v>45047</v>
       </c>
       <c r="B81" s="20"/>
       <c r="C81" s="13"/>
@@ -3243,9 +3249,9 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="38">
-        <v>45108</v>
+        <v>45078</v>
       </c>
       <c r="B82" s="20"/>
       <c r="C82" s="13"/>
@@ -3261,9 +3267,9 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="38">
-        <v>45139</v>
+        <v>45108</v>
       </c>
       <c r="B83" s="20"/>
       <c r="C83" s="13"/>
@@ -3279,9 +3285,9 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="38">
-        <v>45170</v>
+        <v>45139</v>
       </c>
       <c r="B84" s="20"/>
       <c r="C84" s="13"/>
@@ -3297,9 +3303,9 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="38">
-        <v>45200</v>
+        <v>45170</v>
       </c>
       <c r="B85" s="20"/>
       <c r="C85" s="13"/>
@@ -3315,9 +3321,9 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="38">
-        <v>45231</v>
+        <v>45200</v>
       </c>
       <c r="B86" s="20"/>
       <c r="C86" s="13"/>
@@ -3333,9 +3339,9 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="38">
-        <v>45261</v>
+        <v>45231</v>
       </c>
       <c r="B87" s="20"/>
       <c r="C87" s="13"/>
@@ -3351,9 +3357,9 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="38">
-        <v>45292</v>
+        <v>45261</v>
       </c>
       <c r="B88" s="20"/>
       <c r="C88" s="13"/>
@@ -3369,8 +3375,10 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A89" s="38"/>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A89" s="38">
+        <v>45292</v>
+      </c>
       <c r="B89" s="20"/>
       <c r="C89" s="13"/>
       <c r="D89" s="37"/>
@@ -3385,7 +3393,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="38"/>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
@@ -3401,7 +3409,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="38"/>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
@@ -3417,7 +3425,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="38"/>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
@@ -3433,7 +3441,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="38"/>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
@@ -3449,7 +3457,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="38"/>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
@@ -3465,7 +3473,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="38"/>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
@@ -3481,21 +3489,37 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A96" s="39"/>
-      <c r="B96" s="15"/>
-      <c r="C96" s="40"/>
-      <c r="D96" s="41"/>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A96" s="38"/>
+      <c r="B96" s="20"/>
+      <c r="C96" s="13"/>
+      <c r="D96" s="37"/>
       <c r="E96" s="9"/>
-      <c r="F96" s="15"/>
-      <c r="G96" s="40" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H96" s="41"/>
+      <c r="F96" s="20"/>
+      <c r="G96" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H96" s="37"/>
       <c r="I96" s="9"/>
-      <c r="J96" s="12"/>
-      <c r="K96" s="15"/>
+      <c r="J96" s="11"/>
+      <c r="K96" s="20"/>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A97" s="39"/>
+      <c r="B97" s="15"/>
+      <c r="C97" s="40"/>
+      <c r="D97" s="41"/>
+      <c r="E97" s="9"/>
+      <c r="F97" s="15"/>
+      <c r="G97" s="40" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H97" s="41"/>
+      <c r="I97" s="9"/>
+      <c r="J97" s="12"/>
+      <c r="K97" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -3512,10 +3536,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3538,34 +3562,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K76"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A39" activePane="bottomLeft"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3696" topLeftCell="A39" activePane="bottomLeft"/>
       <selection activeCell="E9" sqref="E9"/>
-      <selection pane="bottomLeft" activeCell="D59" sqref="D59"/>
+      <selection pane="bottomLeft" activeCell="M44" sqref="M44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -3586,7 +3610,7 @@
       <c r="J2" s="52"/>
       <c r="K2" s="53"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -3606,7 +3630,7 @@
       <c r="J3" s="54"/>
       <c r="K3" s="55"/>
     </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -3626,7 +3650,7 @@
       <c r="J4" s="52"/>
       <c r="K4" s="53"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -3634,7 +3658,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -3647,7 +3671,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="50" t="s">
@@ -3664,7 +3688,7 @@
       <c r="J7" s="50"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3699,7 +3723,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -3723,7 +3747,7 @@
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="44" t="s">
         <v>44</v>
       </c>
@@ -3745,7 +3769,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="38">
         <v>43160</v>
       </c>
@@ -3769,7 +3793,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="38">
         <v>43191</v>
       </c>
@@ -3793,7 +3817,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="39"/>
       <c r="B13" s="15" t="s">
         <v>47</v>
@@ -3815,7 +3839,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="38">
         <v>43221</v>
       </c>
@@ -3839,7 +3863,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="38">
         <v>43282</v>
       </c>
@@ -3863,7 +3887,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="38">
         <v>43344</v>
       </c>
@@ -3887,7 +3911,7 @@
         <v>43358</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="38">
         <v>43374</v>
       </c>
@@ -3909,7 +3933,7 @@
         <v>43402</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="38"/>
       <c r="B18" s="20" t="s">
         <v>56</v>
@@ -3929,7 +3953,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="38">
         <v>43405</v>
       </c>
@@ -3953,7 +3977,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="38"/>
       <c r="B20" s="20" t="s">
         <v>49</v>
@@ -3975,7 +3999,7 @@
         <v>43431</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="38"/>
       <c r="B21" s="20" t="s">
         <v>58</v>
@@ -3995,7 +4019,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="38">
         <v>43435</v>
       </c>
@@ -4017,7 +4041,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="44" t="s">
         <v>60</v>
       </c>
@@ -4035,7 +4059,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="38">
         <v>43497</v>
       </c>
@@ -4059,7 +4083,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="38">
         <v>43525</v>
       </c>
@@ -4083,7 +4107,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="38">
         <v>43647</v>
       </c>
@@ -4107,7 +4131,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="38">
         <v>43678</v>
       </c>
@@ -4131,7 +4155,7 @@
         <v>43680</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="38"/>
       <c r="B28" s="20" t="s">
         <v>54</v>
@@ -4151,7 +4175,7 @@
         <v>43690</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="38"/>
       <c r="B29" s="20" t="s">
         <v>47</v>
@@ -4173,7 +4197,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="38">
         <v>43709</v>
       </c>
@@ -4197,7 +4221,7 @@
         <v>43725</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="38">
         <v>43770</v>
       </c>
@@ -4221,7 +4245,7 @@
         <v>43781</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="38">
         <v>43800</v>
       </c>
@@ -4245,7 +4269,7 @@
         <v>43803</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="44" t="s">
         <v>67</v>
       </c>
@@ -4263,7 +4287,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="38">
         <v>43831</v>
       </c>
@@ -4287,7 +4311,7 @@
         <v>43839</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="38"/>
       <c r="B35" s="20" t="s">
         <v>47</v>
@@ -4309,7 +4333,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="38">
         <v>43862</v>
       </c>
@@ -4331,7 +4355,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="38"/>
       <c r="B37" s="20" t="s">
         <v>69</v>
@@ -4351,7 +4375,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="38">
         <v>44044</v>
       </c>
@@ -4375,7 +4399,7 @@
         <v>44062</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="38">
         <v>44075</v>
       </c>
@@ -4399,7 +4423,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="38">
         <v>44105</v>
       </c>
@@ -4421,7 +4445,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="44" t="s">
         <v>75</v>
       </c>
@@ -4439,7 +4463,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="38">
         <v>44228</v>
       </c>
@@ -4463,7 +4487,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="38">
         <v>44348</v>
       </c>
@@ -4487,7 +4511,7 @@
         <v>44376</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="44" t="s">
         <v>79</v>
       </c>
@@ -4505,7 +4529,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="38">
         <v>44562</v>
       </c>
@@ -4529,7 +4553,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="38">
         <v>44743</v>
       </c>
@@ -4553,7 +4577,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="38">
         <v>44805</v>
       </c>
@@ -4575,7 +4599,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="38"/>
       <c r="B48" s="20" t="s">
         <v>49</v>
@@ -4597,7 +4621,7 @@
         <v>44805</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="38">
         <v>44835</v>
       </c>
@@ -4621,7 +4645,7 @@
         <v>44854</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="38"/>
       <c r="B50" s="20" t="s">
         <v>54</v>
@@ -4641,7 +4665,7 @@
         <v>44863</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="38">
         <v>44896</v>
       </c>
@@ -4665,7 +4689,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="44" t="s">
         <v>84</v>
       </c>
@@ -4683,7 +4707,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="38">
         <v>44927</v>
       </c>
@@ -4707,7 +4731,7 @@
         <v>44945</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="38"/>
       <c r="B54" s="20" t="s">
         <v>49</v>
@@ -4729,7 +4753,7 @@
         <v>44944</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="38"/>
       <c r="B55" s="20" t="s">
         <v>49</v>
@@ -4751,7 +4775,7 @@
         <v>44933</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="38">
         <v>44958</v>
       </c>
@@ -4775,7 +4799,7 @@
         <v>44959</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="38">
         <v>44986</v>
       </c>
@@ -4799,7 +4823,7 @@
         <v>44989</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="38"/>
       <c r="B58" s="20" t="s">
         <v>45</v>
@@ -4821,7 +4845,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="38">
         <v>45017</v>
       </c>
@@ -4839,7 +4863,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="38">
         <v>45047</v>
       </c>
@@ -4857,7 +4881,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="38">
         <v>45078</v>
       </c>
@@ -4875,7 +4899,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="38">
         <v>45108</v>
       </c>
@@ -4893,7 +4917,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="38">
         <v>45139</v>
       </c>
@@ -4911,7 +4935,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="38">
         <v>45170</v>
       </c>
@@ -4929,7 +4953,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="38">
         <v>45200</v>
       </c>
@@ -4947,7 +4971,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="38">
         <v>45231</v>
       </c>
@@ -4965,7 +4989,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="38">
         <v>45261</v>
       </c>
@@ -4983,7 +5007,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="38">
         <v>45292</v>
       </c>
@@ -5001,7 +5025,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="38"/>
       <c r="B69" s="20"/>
       <c r="C69" s="13"/>
@@ -5017,7 +5041,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="38"/>
       <c r="B70" s="20"/>
       <c r="C70" s="13"/>
@@ -5033,7 +5057,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="38"/>
       <c r="B71" s="20"/>
       <c r="C71" s="13"/>
@@ -5049,7 +5073,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="38"/>
       <c r="B72" s="20"/>
       <c r="C72" s="13"/>
@@ -5065,7 +5089,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="38"/>
       <c r="B73" s="20"/>
       <c r="C73" s="13"/>
@@ -5081,7 +5105,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="38"/>
       <c r="B74" s="20"/>
       <c r="C74" s="13"/>
@@ -5097,7 +5121,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="38"/>
       <c r="B75" s="20"/>
       <c r="C75" s="13"/>
@@ -5113,7 +5137,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="39"/>
       <c r="B76" s="15"/>
       <c r="C76" s="40"/>
@@ -5131,23 +5155,23 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5170,28 +5194,28 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="46" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.88671875" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="46" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D1" s="58" t="s">
         <v>33</v>
       </c>
@@ -5204,7 +5228,7 @@
       <c r="K1" s="59"/>
       <c r="L1" s="59"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -5233,7 +5257,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="35">
         <v>151.958</v>
       </c>
@@ -5257,17 +5281,20 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>90</v>
+      </c>
       <c r="C6" s="47" t="s">
         <v>28</v>
       </c>
@@ -5288,7 +5315,11 @@
       <c r="K6" s="60"/>
       <c r="L6" s="60"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" s="9">
+        <f>SUM('2018 LEAVE CREDITS'!E9,'2018 LEAVE CREDITS'!I9)</f>
+        <v>133.5</v>
+      </c>
       <c r="C7" s="46">
         <v>1</v>
       </c>
@@ -5315,7 +5346,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="46">
         <v>2</v>
       </c>
@@ -5341,7 +5372,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="46">
         <v>3</v>
       </c>
@@ -5367,7 +5398,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="46">
         <v>4</v>
       </c>
@@ -5393,7 +5424,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="46">
         <v>5</v>
       </c>
@@ -5419,7 +5450,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="46">
         <v>6</v>
       </c>
@@ -5445,7 +5476,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="46">
         <v>7</v>
       </c>
@@ -5471,7 +5502,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="46">
         <v>8</v>
       </c>
@@ -5497,7 +5528,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="46">
         <v>9</v>
       </c>
@@ -5517,7 +5548,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C16" s="46">
         <v>10</v>
       </c>
@@ -5537,7 +5568,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="46">
         <v>11</v>
       </c>
@@ -5557,7 +5588,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C18" s="46">
         <v>12</v>
       </c>
@@ -5578,7 +5609,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C19" s="46">
         <v>13</v>
       </c>
@@ -5599,7 +5630,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C20" s="46">
         <v>14</v>
       </c>
@@ -5620,7 +5651,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C21" s="46">
         <v>15</v>
       </c>
@@ -5641,7 +5672,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C22" s="46">
         <v>16</v>
       </c>
@@ -5662,7 +5693,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C23" s="46">
         <v>17</v>
       </c>
@@ -5683,7 +5714,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C24" s="46">
         <v>18</v>
       </c>
@@ -5704,7 +5735,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C25" s="46">
         <v>19</v>
       </c>
@@ -5725,7 +5756,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C26" s="46">
         <v>20</v>
       </c>
@@ -5746,7 +5777,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C27" s="46">
         <v>21</v>
       </c>
@@ -5767,7 +5798,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="46">
         <v>22</v>
       </c>
@@ -5788,7 +5819,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C29" s="46">
         <v>23</v>
       </c>
@@ -5809,7 +5840,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="46">
         <v>24</v>
       </c>
@@ -5830,7 +5861,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C31" s="46">
         <v>25</v>
       </c>
@@ -5851,7 +5882,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C32" s="46">
         <v>26</v>
       </c>
@@ -5872,7 +5903,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C33" s="46">
         <v>27</v>
       </c>
@@ -5893,7 +5924,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C34" s="46">
         <v>28</v>
       </c>
@@ -5914,7 +5945,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C35" s="46">
         <v>29</v>
       </c>
@@ -5935,7 +5966,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C36" s="46">
         <v>30</v>
       </c>
@@ -5956,7 +5987,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C37" s="46">
         <v>31</v>
       </c>
@@ -5977,7 +6008,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C38" s="46">
         <v>32</v>
       </c>
@@ -5986,7 +6017,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C39" s="46">
         <v>33</v>
       </c>
@@ -5995,7 +6026,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C40" s="46">
         <v>34</v>
       </c>
@@ -6004,7 +6035,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C41" s="46">
         <v>35</v>
       </c>
@@ -6013,7 +6044,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C42" s="46">
         <v>36</v>
       </c>
@@ -6022,7 +6053,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C43" s="46">
         <v>37</v>
       </c>
@@ -6031,7 +6062,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C44" s="46">
         <v>38</v>
       </c>
@@ -6040,7 +6071,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C45" s="46">
         <v>39</v>
       </c>
@@ -6049,7 +6080,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C46" s="46">
         <v>40</v>
       </c>
@@ -6058,7 +6089,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C47" s="46">
         <v>41</v>
       </c>
@@ -6067,7 +6098,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C48" s="46">
         <v>42</v>
       </c>
@@ -6076,7 +6107,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C49" s="46">
         <v>43</v>
       </c>
@@ -6085,7 +6116,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C50" s="46">
         <v>44</v>
       </c>
@@ -6094,7 +6125,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C51" s="46">
         <v>45</v>
       </c>
@@ -6103,7 +6134,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C52" s="46">
         <v>46</v>
       </c>
@@ -6112,7 +6143,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C53" s="46">
         <v>47</v>
       </c>
@@ -6121,7 +6152,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C54" s="46">
         <v>48</v>
       </c>
@@ -6130,7 +6161,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C55" s="46">
         <v>49</v>
       </c>
@@ -6139,7 +6170,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C56" s="46">
         <v>50</v>
       </c>
@@ -6148,7 +6179,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C57" s="46">
         <v>51</v>
       </c>
@@ -6157,7 +6188,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C58" s="46">
         <v>52</v>
       </c>
@@ -6166,7 +6197,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C59" s="46">
         <v>53</v>
       </c>
@@ -6175,7 +6206,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C60" s="46">
         <v>54</v>
       </c>
@@ -6184,7 +6215,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C61" s="46">
         <v>55</v>
       </c>
@@ -6193,7 +6224,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C62" s="46">
         <v>56</v>
       </c>
@@ -6202,7 +6233,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C63" s="46">
         <v>57</v>
       </c>
@@ -6211,7 +6242,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C64" s="46">
         <v>58</v>
       </c>
@@ -6220,7 +6251,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C65" s="46">
         <v>59</v>
       </c>
@@ -6229,7 +6260,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C66" s="46">
         <v>60</v>
       </c>
@@ -6238,7 +6269,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/NEW HR/RODRIGUEZ, NARCISO ENRIQUEZ.xlsx
+++ b/NEW HR/RODRIGUEZ, NARCISO ENRIQUEZ.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30939811-2BB8-4B49-8C95-A1434EE904CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="2018 LEAVE CREDITS" sheetId="1" r:id="rId1"/>
@@ -27,7 +26,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'2017 LEAVE BALANCE'!$1:$9</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'2018 LEAVE CREDITS'!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="94">
   <si>
     <t>PERIOD</t>
   </si>
@@ -310,12 +309,21 @@
   </si>
   <si>
     <t>TOTAL LEAVE BALANCE</t>
+  </si>
+  <si>
+    <t>5/18,19/2023</t>
+  </si>
+  <si>
+    <t>EEO/CITY MARKET</t>
+  </si>
+  <si>
+    <t>06/1,2/2023</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1242,25 +1250,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K97" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K97" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="25"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="24"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="23"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="22"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="21">
+    <tableColumn id="1" name="PERIOD" dataDxfId="25"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="24"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="23"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="22"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="21">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="20"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="19">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="20"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="19">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="18"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="17">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="18"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="17">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="16"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="15"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="16"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1272,25 +1280,25 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table13" displayName="Table13" ref="A8:K76" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A8:K76" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1597,34 +1605,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K97"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3696" topLeftCell="A43" activePane="bottomLeft"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3690" topLeftCell="A67" activePane="bottomLeft"/>
       <selection activeCell="E9" sqref="E9"/>
-      <selection pane="bottomLeft" activeCell="C79" sqref="C79"/>
+      <selection pane="bottomLeft" activeCell="B82" sqref="B82:K82"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -1645,7 +1653,7 @@
       <c r="J2" s="52"/>
       <c r="K2" s="53"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -1665,7 +1673,7 @@
       <c r="J3" s="54"/>
       <c r="K3" s="55"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -1685,7 +1693,7 @@
       <c r="J4" s="52"/>
       <c r="K4" s="53"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -1693,7 +1701,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -1706,7 +1714,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="50" t="s">
@@ -1723,7 +1731,7 @@
       <c r="J7" s="50"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -1758,7 +1766,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -1767,7 +1775,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])</f>
-        <v>54.75</v>
+        <v>57.25</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -1777,12 +1785,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])</f>
-        <v>78.75</v>
+        <v>81.25</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="44" t="s">
         <v>44</v>
       </c>
@@ -1804,7 +1812,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="38">
         <v>43101</v>
       </c>
@@ -1824,7 +1832,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="38">
         <v>43132</v>
       </c>
@@ -1844,7 +1852,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="38">
         <v>43160</v>
       </c>
@@ -1864,7 +1872,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="38">
         <v>43191</v>
       </c>
@@ -1884,7 +1892,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="38">
         <v>43221</v>
       </c>
@@ -1904,7 +1912,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="38">
         <v>43252</v>
       </c>
@@ -1924,7 +1932,7 @@
       <c r="J16" s="11"/>
       <c r="K16" s="20"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="38">
         <v>43282</v>
       </c>
@@ -1944,7 +1952,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="38">
         <v>43313</v>
       </c>
@@ -1964,7 +1972,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="38">
         <v>43344</v>
       </c>
@@ -1984,7 +1992,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="45"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="38">
         <v>43374</v>
       </c>
@@ -2010,7 +2018,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="38">
         <v>43405</v>
       </c>
@@ -2030,7 +2038,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="38">
         <v>43435</v>
       </c>
@@ -2050,7 +2058,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="44" t="s">
         <v>60</v>
       </c>
@@ -2068,7 +2076,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="38">
         <v>43466</v>
       </c>
@@ -2088,7 +2096,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="38">
         <v>43497</v>
       </c>
@@ -2114,7 +2122,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="38">
         <v>43525</v>
       </c>
@@ -2134,7 +2142,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="38">
         <v>43556</v>
       </c>
@@ -2154,7 +2162,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="38">
         <v>43586</v>
       </c>
@@ -2174,7 +2182,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="38">
         <v>43617</v>
       </c>
@@ -2194,7 +2202,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="38">
         <v>43647</v>
       </c>
@@ -2214,7 +2222,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="38">
         <v>43678</v>
       </c>
@@ -2234,7 +2242,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="45"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="38">
         <v>43709</v>
       </c>
@@ -2254,7 +2262,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="45"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="38">
         <v>43739</v>
       </c>
@@ -2274,7 +2282,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="38">
         <v>43770</v>
       </c>
@@ -2294,7 +2302,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="45"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="38">
         <v>43800</v>
       </c>
@@ -2314,7 +2322,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="45"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="44" t="s">
         <v>67</v>
       </c>
@@ -2332,7 +2340,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="38">
         <v>43831</v>
       </c>
@@ -2352,7 +2360,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="45"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="38">
         <v>43862</v>
       </c>
@@ -2372,7 +2380,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="38">
         <v>43891</v>
       </c>
@@ -2398,7 +2406,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="38">
         <v>43922</v>
       </c>
@@ -2418,7 +2426,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="38">
         <v>43952</v>
       </c>
@@ -2438,7 +2446,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="38">
         <v>43983</v>
       </c>
@@ -2458,7 +2466,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="38">
         <v>44013</v>
       </c>
@@ -2478,7 +2486,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="38">
         <v>44044</v>
       </c>
@@ -2498,7 +2506,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="45"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="38">
         <v>44075</v>
       </c>
@@ -2518,7 +2526,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="38">
         <v>44105</v>
       </c>
@@ -2538,7 +2546,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="38">
         <v>44136</v>
       </c>
@@ -2558,7 +2566,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="38">
         <v>44166</v>
       </c>
@@ -2582,7 +2590,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="44" t="s">
         <v>75</v>
       </c>
@@ -2600,7 +2608,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="38">
         <v>44197</v>
       </c>
@@ -2620,7 +2628,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="38">
         <v>44228</v>
       </c>
@@ -2640,7 +2648,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="38">
         <v>44256</v>
       </c>
@@ -2660,7 +2668,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="38">
         <v>44287</v>
       </c>
@@ -2680,7 +2688,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="38">
         <v>44317</v>
       </c>
@@ -2700,7 +2708,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="38">
         <v>44348</v>
       </c>
@@ -2720,7 +2728,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="45"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="38">
         <v>44378</v>
       </c>
@@ -2740,7 +2748,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="38">
         <v>44409</v>
       </c>
@@ -2760,7 +2768,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="38">
         <v>44440</v>
       </c>
@@ -2780,7 +2788,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="38">
         <v>44470</v>
       </c>
@@ -2800,7 +2808,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="38">
         <v>44501</v>
       </c>
@@ -2820,7 +2828,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="38">
         <v>44531</v>
       </c>
@@ -2846,7 +2854,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="38"/>
       <c r="B62" s="20" t="s">
         <v>74</v>
@@ -2866,7 +2874,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="44" t="s">
         <v>79</v>
       </c>
@@ -2884,7 +2892,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="38">
         <v>44562</v>
       </c>
@@ -2904,7 +2912,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="38">
         <f>EDATE(A64,1)</f>
         <v>44593</v>
@@ -2925,7 +2933,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="38">
         <f t="shared" ref="A66:A71" si="0">EDATE(A65,1)</f>
         <v>44621</v>
@@ -2946,7 +2954,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="38">
         <f t="shared" si="0"/>
         <v>44652</v>
@@ -2967,7 +2975,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="38">
         <f t="shared" si="0"/>
         <v>44682</v>
@@ -2988,7 +2996,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="38">
         <f t="shared" si="0"/>
         <v>44713</v>
@@ -3009,7 +3017,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="38">
         <f t="shared" si="0"/>
         <v>44743</v>
@@ -3030,7 +3038,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="38">
         <f t="shared" si="0"/>
         <v>44774</v>
@@ -3051,7 +3059,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="38">
         <v>44805</v>
       </c>
@@ -3071,7 +3079,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="38">
         <v>44835</v>
       </c>
@@ -3091,7 +3099,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="45"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="38">
         <v>44866</v>
       </c>
@@ -3111,7 +3119,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="38">
         <v>44896</v>
       </c>
@@ -3135,7 +3143,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="44" t="s">
         <v>84</v>
       </c>
@@ -3153,7 +3161,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="38">
         <v>44927</v>
       </c>
@@ -3173,7 +3181,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="38">
         <v>44958</v>
       </c>
@@ -3193,7 +3201,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="38">
         <v>44986</v>
       </c>
@@ -3213,43 +3221,47 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="38">
         <v>45017</v>
       </c>
       <c r="B80" s="20"/>
-      <c r="C80" s="13"/>
+      <c r="C80" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D80" s="37"/>
       <c r="E80" s="9"/>
       <c r="F80" s="20"/>
-      <c r="G80" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G80" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H80" s="37"/>
       <c r="I80" s="9"/>
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="38">
         <v>45047</v>
       </c>
       <c r="B81" s="20"/>
-      <c r="C81" s="13"/>
+      <c r="C81" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D81" s="37"/>
       <c r="E81" s="9"/>
       <c r="F81" s="20"/>
-      <c r="G81" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G81" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H81" s="37"/>
       <c r="I81" s="9"/>
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="38">
         <v>45078</v>
       </c>
@@ -3258,16 +3270,13 @@
       <c r="D82" s="37"/>
       <c r="E82" s="9"/>
       <c r="F82" s="20"/>
-      <c r="G82" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
+      <c r="G82" s="13"/>
       <c r="H82" s="37"/>
       <c r="I82" s="9"/>
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="38">
         <v>45108</v>
       </c>
@@ -3285,7 +3294,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="38">
         <v>45139</v>
       </c>
@@ -3303,7 +3312,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="38">
         <v>45170</v>
       </c>
@@ -3321,7 +3330,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="38">
         <v>45200</v>
       </c>
@@ -3339,7 +3348,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="38">
         <v>45231</v>
       </c>
@@ -3357,7 +3366,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="38">
         <v>45261</v>
       </c>
@@ -3375,7 +3384,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="38">
         <v>45292</v>
       </c>
@@ -3393,7 +3402,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="38"/>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
@@ -3409,7 +3418,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="38"/>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
@@ -3425,7 +3434,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="38"/>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
@@ -3441,7 +3450,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="38"/>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
@@ -3457,7 +3466,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="38"/>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
@@ -3473,7 +3482,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="38"/>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
@@ -3489,7 +3498,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="38"/>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
@@ -3505,7 +3514,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="39"/>
       <c r="B97" s="15"/>
       <c r="C97" s="40"/>
@@ -3536,10 +3545,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3562,34 +3571,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K76"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3696" topLeftCell="A39" activePane="bottomLeft"/>
-      <selection activeCell="E9" sqref="E9"/>
-      <selection pane="bottomLeft" activeCell="M44" sqref="M44"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3690" topLeftCell="A54" activePane="bottomLeft"/>
+      <selection activeCell="F4" sqref="F4:G4"/>
+      <selection pane="bottomLeft" activeCell="K62" sqref="K62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -3610,7 +3619,7 @@
       <c r="J2" s="52"/>
       <c r="K2" s="53"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -3630,7 +3639,7 @@
       <c r="J3" s="54"/>
       <c r="K3" s="55"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -3641,7 +3650,9 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="52"/>
+      <c r="F4" s="52" t="s">
+        <v>92</v>
+      </c>
       <c r="G4" s="52"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
@@ -3650,7 +3661,7 @@
       <c r="J4" s="52"/>
       <c r="K4" s="53"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -3658,7 +3669,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -3671,7 +3682,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="50" t="s">
@@ -3688,7 +3699,7 @@
       <c r="J7" s="50"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3723,7 +3734,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -3742,12 +3753,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>60.957999999999998</v>
+        <v>56.957999999999998</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="44" t="s">
         <v>44</v>
       </c>
@@ -3769,7 +3780,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="38">
         <v>43160</v>
       </c>
@@ -3793,7 +3804,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="38">
         <v>43191</v>
       </c>
@@ -3817,7 +3828,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="39"/>
       <c r="B13" s="15" t="s">
         <v>47</v>
@@ -3839,7 +3850,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="38">
         <v>43221</v>
       </c>
@@ -3863,7 +3874,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="38">
         <v>43282</v>
       </c>
@@ -3887,7 +3898,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="38">
         <v>43344</v>
       </c>
@@ -3911,7 +3922,7 @@
         <v>43358</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="38">
         <v>43374</v>
       </c>
@@ -3933,7 +3944,7 @@
         <v>43402</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="38"/>
       <c r="B18" s="20" t="s">
         <v>56</v>
@@ -3953,7 +3964,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="38">
         <v>43405</v>
       </c>
@@ -3977,7 +3988,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="38"/>
       <c r="B20" s="20" t="s">
         <v>49</v>
@@ -3999,7 +4010,7 @@
         <v>43431</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="38"/>
       <c r="B21" s="20" t="s">
         <v>58</v>
@@ -4019,7 +4030,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="38">
         <v>43435</v>
       </c>
@@ -4041,7 +4052,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="44" t="s">
         <v>60</v>
       </c>
@@ -4059,7 +4070,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="38">
         <v>43497</v>
       </c>
@@ -4083,7 +4094,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="38">
         <v>43525</v>
       </c>
@@ -4107,7 +4118,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="38">
         <v>43647</v>
       </c>
@@ -4131,7 +4142,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="38">
         <v>43678</v>
       </c>
@@ -4155,7 +4166,7 @@
         <v>43680</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="38"/>
       <c r="B28" s="20" t="s">
         <v>54</v>
@@ -4175,7 +4186,7 @@
         <v>43690</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="38"/>
       <c r="B29" s="20" t="s">
         <v>47</v>
@@ -4197,7 +4208,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="38">
         <v>43709</v>
       </c>
@@ -4221,7 +4232,7 @@
         <v>43725</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="38">
         <v>43770</v>
       </c>
@@ -4245,7 +4256,7 @@
         <v>43781</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="38">
         <v>43800</v>
       </c>
@@ -4269,7 +4280,7 @@
         <v>43803</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="44" t="s">
         <v>67</v>
       </c>
@@ -4287,7 +4298,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="38">
         <v>43831</v>
       </c>
@@ -4311,7 +4322,7 @@
         <v>43839</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="38"/>
       <c r="B35" s="20" t="s">
         <v>47</v>
@@ -4333,7 +4344,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="38">
         <v>43862</v>
       </c>
@@ -4355,7 +4366,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="38"/>
       <c r="B37" s="20" t="s">
         <v>69</v>
@@ -4375,7 +4386,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="38">
         <v>44044</v>
       </c>
@@ -4399,7 +4410,7 @@
         <v>44062</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="38">
         <v>44075</v>
       </c>
@@ -4423,7 +4434,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="38">
         <v>44105</v>
       </c>
@@ -4445,7 +4456,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="44" t="s">
         <v>75</v>
       </c>
@@ -4463,7 +4474,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="38">
         <v>44228</v>
       </c>
@@ -4487,7 +4498,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="38">
         <v>44348</v>
       </c>
@@ -4511,7 +4522,7 @@
         <v>44376</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="44" t="s">
         <v>79</v>
       </c>
@@ -4529,7 +4540,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="38">
         <v>44562</v>
       </c>
@@ -4553,7 +4564,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="38">
         <v>44743</v>
       </c>
@@ -4577,7 +4588,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="38">
         <v>44805</v>
       </c>
@@ -4599,7 +4610,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="38"/>
       <c r="B48" s="20" t="s">
         <v>49</v>
@@ -4621,7 +4632,7 @@
         <v>44805</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="38">
         <v>44835</v>
       </c>
@@ -4645,7 +4656,7 @@
         <v>44854</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="38"/>
       <c r="B50" s="20" t="s">
         <v>54</v>
@@ -4665,7 +4676,7 @@
         <v>44863</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="38">
         <v>44896</v>
       </c>
@@ -4689,7 +4700,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="44" t="s">
         <v>84</v>
       </c>
@@ -4707,7 +4718,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="38">
         <v>44927</v>
       </c>
@@ -4731,7 +4742,7 @@
         <v>44945</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="38"/>
       <c r="B54" s="20" t="s">
         <v>49</v>
@@ -4753,7 +4764,7 @@
         <v>44944</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="38"/>
       <c r="B55" s="20" t="s">
         <v>49</v>
@@ -4775,7 +4786,7 @@
         <v>44933</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="38">
         <v>44958</v>
       </c>
@@ -4799,7 +4810,7 @@
         <v>44959</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="38">
         <v>44986</v>
       </c>
@@ -4823,7 +4834,7 @@
         <v>44989</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="38"/>
       <c r="B58" s="20" t="s">
         <v>45</v>
@@ -4845,7 +4856,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="38">
         <v>45017</v>
       </c>
@@ -4863,11 +4874,13 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="38">
         <v>45047</v>
       </c>
-      <c r="B60" s="20"/>
+      <c r="B60" s="20" t="s">
+        <v>47</v>
+      </c>
       <c r="C60" s="13"/>
       <c r="D60" s="37"/>
       <c r="E60" s="9"/>
@@ -4876,16 +4889,22 @@
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H60" s="37"/>
+      <c r="H60" s="37">
+        <v>2</v>
+      </c>
       <c r="I60" s="9"/>
       <c r="J60" s="11"/>
-      <c r="K60" s="20"/>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K60" s="20" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="38">
         <v>45078</v>
       </c>
-      <c r="B61" s="20"/>
+      <c r="B61" s="20" t="s">
+        <v>47</v>
+      </c>
       <c r="C61" s="13"/>
       <c r="D61" s="37"/>
       <c r="E61" s="9"/>
@@ -4894,12 +4913,16 @@
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H61" s="37"/>
+      <c r="H61" s="37">
+        <v>2</v>
+      </c>
       <c r="I61" s="9"/>
       <c r="J61" s="11"/>
-      <c r="K61" s="20"/>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K61" s="20" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="38">
         <v>45108</v>
       </c>
@@ -4917,7 +4940,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="38">
         <v>45139</v>
       </c>
@@ -4935,7 +4958,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="38">
         <v>45170</v>
       </c>
@@ -4953,7 +4976,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="38">
         <v>45200</v>
       </c>
@@ -4971,7 +4994,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="38">
         <v>45231</v>
       </c>
@@ -4989,7 +5012,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="38">
         <v>45261</v>
       </c>
@@ -5007,7 +5030,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="38">
         <v>45292</v>
       </c>
@@ -5025,7 +5048,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="38"/>
       <c r="B69" s="20"/>
       <c r="C69" s="13"/>
@@ -5041,7 +5064,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="38"/>
       <c r="B70" s="20"/>
       <c r="C70" s="13"/>
@@ -5057,7 +5080,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="38"/>
       <c r="B71" s="20"/>
       <c r="C71" s="13"/>
@@ -5073,7 +5096,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="38"/>
       <c r="B72" s="20"/>
       <c r="C72" s="13"/>
@@ -5089,7 +5112,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="38"/>
       <c r="B73" s="20"/>
       <c r="C73" s="13"/>
@@ -5105,7 +5128,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="38"/>
       <c r="B74" s="20"/>
       <c r="C74" s="13"/>
@@ -5121,7 +5144,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="38"/>
       <c r="B75" s="20"/>
       <c r="C75" s="13"/>
@@ -5137,7 +5160,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="39"/>
       <c r="B76" s="15"/>
       <c r="C76" s="40"/>
@@ -5168,10 +5191,10 @@
     <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5194,28 +5217,28 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.88671875" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="46" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.88671875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="46" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="58" t="s">
         <v>33</v>
       </c>
@@ -5228,7 +5251,7 @@
       <c r="K1" s="59"/>
       <c r="L1" s="59"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -5257,7 +5280,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="35">
         <v>151.958</v>
       </c>
@@ -5281,17 +5304,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>90</v>
       </c>
@@ -5315,10 +5338,10 @@
       <c r="K6" s="60"/>
       <c r="L6" s="60"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
         <f>SUM('2018 LEAVE CREDITS'!E9,'2018 LEAVE CREDITS'!I9)</f>
-        <v>133.5</v>
+        <v>138.5</v>
       </c>
       <c r="C7" s="46">
         <v>1</v>
@@ -5346,7 +5369,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="46">
         <v>2</v>
       </c>
@@ -5372,7 +5395,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="46">
         <v>3</v>
       </c>
@@ -5398,7 +5421,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="46">
         <v>4</v>
       </c>
@@ -5424,7 +5447,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="46">
         <v>5</v>
       </c>
@@ -5450,7 +5473,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="46">
         <v>6</v>
       </c>
@@ -5476,7 +5499,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="46">
         <v>7</v>
       </c>
@@ -5502,7 +5525,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="46">
         <v>8</v>
       </c>
@@ -5528,7 +5551,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="46">
         <v>9</v>
       </c>
@@ -5548,7 +5571,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="46">
         <v>10</v>
       </c>
@@ -5568,7 +5591,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="46">
         <v>11</v>
       </c>
@@ -5588,7 +5611,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="46">
         <v>12</v>
       </c>
@@ -5609,7 +5632,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="46">
         <v>13</v>
       </c>
@@ -5630,7 +5653,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="46">
         <v>14</v>
       </c>
@@ -5651,7 +5674,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="46">
         <v>15</v>
       </c>
@@ -5672,7 +5695,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="46">
         <v>16</v>
       </c>
@@ -5693,7 +5716,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="46">
         <v>17</v>
       </c>
@@ -5714,7 +5737,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="46">
         <v>18</v>
       </c>
@@ -5735,7 +5758,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="46">
         <v>19</v>
       </c>
@@ -5756,7 +5779,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="46">
         <v>20</v>
       </c>
@@ -5777,7 +5800,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="46">
         <v>21</v>
       </c>
@@ -5798,7 +5821,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="46">
         <v>22</v>
       </c>
@@ -5819,7 +5842,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="46">
         <v>23</v>
       </c>
@@ -5840,7 +5863,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="46">
         <v>24</v>
       </c>
@@ -5861,7 +5884,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="46">
         <v>25</v>
       </c>
@@ -5882,7 +5905,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="46">
         <v>26</v>
       </c>
@@ -5903,7 +5926,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="46">
         <v>27</v>
       </c>
@@ -5924,7 +5947,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="46">
         <v>28</v>
       </c>
@@ -5945,7 +5968,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="46">
         <v>29</v>
       </c>
@@ -5966,7 +5989,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="46">
         <v>30</v>
       </c>
@@ -5987,7 +6010,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="46">
         <v>31</v>
       </c>
@@ -6008,7 +6031,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="46">
         <v>32</v>
       </c>
@@ -6017,7 +6040,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="46">
         <v>33</v>
       </c>
@@ -6026,7 +6049,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="46">
         <v>34</v>
       </c>
@@ -6035,7 +6058,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="46">
         <v>35</v>
       </c>
@@ -6044,7 +6067,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="46">
         <v>36</v>
       </c>
@@ -6053,7 +6076,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="46">
         <v>37</v>
       </c>
@@ -6062,7 +6085,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="46">
         <v>38</v>
       </c>
@@ -6071,7 +6094,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="46">
         <v>39</v>
       </c>
@@ -6080,7 +6103,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="46">
         <v>40</v>
       </c>
@@ -6089,7 +6112,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="46">
         <v>41</v>
       </c>
@@ -6098,7 +6121,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="46">
         <v>42</v>
       </c>
@@ -6107,7 +6130,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="46">
         <v>43</v>
       </c>
@@ -6116,7 +6139,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="46">
         <v>44</v>
       </c>
@@ -6125,7 +6148,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="46">
         <v>45</v>
       </c>
@@ -6134,7 +6157,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="46">
         <v>46</v>
       </c>
@@ -6143,7 +6166,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="46">
         <v>47</v>
       </c>
@@ -6152,7 +6175,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="46">
         <v>48</v>
       </c>
@@ -6161,7 +6184,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="46">
         <v>49</v>
       </c>
@@ -6170,7 +6193,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="46">
         <v>50</v>
       </c>
@@ -6179,7 +6202,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="46">
         <v>51</v>
       </c>
@@ -6188,7 +6211,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="46">
         <v>52</v>
       </c>
@@ -6197,7 +6220,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="46">
         <v>53</v>
       </c>
@@ -6206,7 +6229,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="46">
         <v>54</v>
       </c>
@@ -6215,7 +6238,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="46">
         <v>55</v>
       </c>
@@ -6224,7 +6247,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="46">
         <v>56</v>
       </c>
@@ -6233,7 +6256,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="46">
         <v>57</v>
       </c>
@@ -6242,7 +6265,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="46">
         <v>58</v>
       </c>
@@ -6251,7 +6274,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="46">
         <v>59</v>
       </c>
@@ -6260,7 +6283,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="46">
         <v>60</v>
       </c>
@@ -6269,7 +6292,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/NEW HR/RODRIGUEZ, NARCISO ENRIQUEZ.xlsx
+++ b/NEW HR/RODRIGUEZ, NARCISO ENRIQUEZ.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="94">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1280,7 +1280,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A8:K76" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A8:K77" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
@@ -3575,12 +3575,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K76"/>
+  <dimension ref="A2:K77"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A54" activePane="bottomLeft"/>
       <selection activeCell="F4" sqref="F4:G4"/>
-      <selection pane="bottomLeft" activeCell="K62" sqref="K62"/>
+      <selection pane="bottomLeft" activeCell="K63" sqref="K63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3753,7 +3753,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>56.957999999999998</v>
+        <v>55.957999999999998</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -4923,10 +4923,10 @@
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A62" s="38">
-        <v>45108</v>
-      </c>
-      <c r="B62" s="20"/>
+      <c r="A62" s="38"/>
+      <c r="B62" s="20" t="s">
+        <v>49</v>
+      </c>
       <c r="C62" s="13"/>
       <c r="D62" s="37"/>
       <c r="E62" s="9"/>
@@ -4935,14 +4935,18 @@
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H62" s="37"/>
+      <c r="H62" s="37">
+        <v>1</v>
+      </c>
       <c r="I62" s="9"/>
       <c r="J62" s="11"/>
-      <c r="K62" s="20"/>
+      <c r="K62" s="45">
+        <v>45095</v>
+      </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="38">
-        <v>45139</v>
+        <v>45108</v>
       </c>
       <c r="B63" s="20"/>
       <c r="C63" s="13"/>
@@ -4960,7 +4964,7 @@
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="38">
-        <v>45170</v>
+        <v>45139</v>
       </c>
       <c r="B64" s="20"/>
       <c r="C64" s="13"/>
@@ -4978,7 +4982,7 @@
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="38">
-        <v>45200</v>
+        <v>45170</v>
       </c>
       <c r="B65" s="20"/>
       <c r="C65" s="13"/>
@@ -4996,7 +5000,7 @@
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="38">
-        <v>45231</v>
+        <v>45200</v>
       </c>
       <c r="B66" s="20"/>
       <c r="C66" s="13"/>
@@ -5014,7 +5018,7 @@
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="38">
-        <v>45261</v>
+        <v>45231</v>
       </c>
       <c r="B67" s="20"/>
       <c r="C67" s="13"/>
@@ -5032,7 +5036,7 @@
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="38">
-        <v>45292</v>
+        <v>45261</v>
       </c>
       <c r="B68" s="20"/>
       <c r="C68" s="13"/>
@@ -5049,7 +5053,9 @@
       <c r="K68" s="20"/>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A69" s="38"/>
+      <c r="A69" s="38">
+        <v>45292</v>
+      </c>
       <c r="B69" s="20"/>
       <c r="C69" s="13"/>
       <c r="D69" s="37"/>
@@ -5161,34 +5167,50 @@
       <c r="K75" s="20"/>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A76" s="39"/>
-      <c r="B76" s="15"/>
-      <c r="C76" s="40"/>
-      <c r="D76" s="41"/>
+      <c r="A76" s="38"/>
+      <c r="B76" s="20"/>
+      <c r="C76" s="13"/>
+      <c r="D76" s="37"/>
       <c r="E76" s="9"/>
-      <c r="F76" s="15"/>
-      <c r="G76" s="40" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H76" s="41"/>
+      <c r="F76" s="20"/>
+      <c r="G76" s="13" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H76" s="37"/>
       <c r="I76" s="9"/>
-      <c r="J76" s="12"/>
-      <c r="K76" s="15"/>
+      <c r="J76" s="11"/>
+      <c r="K76" s="20"/>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A77" s="39"/>
+      <c r="B77" s="15"/>
+      <c r="C77" s="40"/>
+      <c r="D77" s="41"/>
+      <c r="E77" s="9"/>
+      <c r="F77" s="15"/>
+      <c r="G77" s="40" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H77" s="41"/>
+      <c r="I77" s="9"/>
+      <c r="J77" s="12"/>
+      <c r="K77" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">

--- a/NEW HR/RODRIGUEZ, NARCISO ENRIQUEZ.xlsx
+++ b/NEW HR/RODRIGUEZ, NARCISO ENRIQUEZ.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B58E70E-BE5E-44CD-AB48-98E09EB0D10A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2018 LEAVE CREDITS" sheetId="1" r:id="rId1"/>
@@ -26,7 +27,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'2017 LEAVE BALANCE'!$1:$9</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'2018 LEAVE CREDITS'!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="95">
   <si>
     <t>PERIOD</t>
   </si>
@@ -318,12 +319,15 @@
   </si>
   <si>
     <t>06/1,2/2023</t>
+  </si>
+  <si>
+    <t>6/25,29/2023</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1233,7 +1237,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -1250,25 +1254,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K97" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K97" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="25"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="24"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="23"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="22"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="21">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="25"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="24"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="23"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="22"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="21">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="20"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="19">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="20"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="19">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="18"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="17">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="18"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="17">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="16"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="15"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="16"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1280,25 +1284,25 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A8:K77" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table13" displayName="Table13" ref="A8:K77" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1605,34 +1609,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K97"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A67" activePane="bottomLeft"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3696" topLeftCell="A73" activePane="bottomLeft"/>
       <selection activeCell="E9" sqref="E9"/>
-      <selection pane="bottomLeft" activeCell="B82" sqref="B82:K82"/>
+      <selection pane="bottomLeft" activeCell="F82" sqref="F82"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -1653,7 +1657,7 @@
       <c r="J2" s="52"/>
       <c r="K2" s="53"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -1673,7 +1677,7 @@
       <c r="J3" s="54"/>
       <c r="K3" s="55"/>
     </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -1693,7 +1697,7 @@
       <c r="J4" s="52"/>
       <c r="K4" s="53"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -1701,7 +1705,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -1714,7 +1718,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="50" t="s">
@@ -1731,7 +1735,7 @@
       <c r="J7" s="50"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -1766,7 +1770,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -1775,7 +1779,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])</f>
-        <v>57.25</v>
+        <v>58.5</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -1785,12 +1789,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])</f>
-        <v>81.25</v>
+        <v>82.5</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="44" t="s">
         <v>44</v>
       </c>
@@ -1812,7 +1816,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="38">
         <v>43101</v>
       </c>
@@ -1832,7 +1836,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="38">
         <v>43132</v>
       </c>
@@ -1852,7 +1856,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="38">
         <v>43160</v>
       </c>
@@ -1872,7 +1876,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="38">
         <v>43191</v>
       </c>
@@ -1892,7 +1896,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="38">
         <v>43221</v>
       </c>
@@ -1912,7 +1916,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="38">
         <v>43252</v>
       </c>
@@ -1932,7 +1936,7 @@
       <c r="J16" s="11"/>
       <c r="K16" s="20"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="38">
         <v>43282</v>
       </c>
@@ -1952,7 +1956,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="38">
         <v>43313</v>
       </c>
@@ -1972,7 +1976,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="38">
         <v>43344</v>
       </c>
@@ -1992,7 +1996,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="45"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="38">
         <v>43374</v>
       </c>
@@ -2018,7 +2022,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="38">
         <v>43405</v>
       </c>
@@ -2038,7 +2042,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="38">
         <v>43435</v>
       </c>
@@ -2058,7 +2062,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="44" t="s">
         <v>60</v>
       </c>
@@ -2076,7 +2080,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="38">
         <v>43466</v>
       </c>
@@ -2096,7 +2100,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="38">
         <v>43497</v>
       </c>
@@ -2122,7 +2126,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="38">
         <v>43525</v>
       </c>
@@ -2142,7 +2146,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="38">
         <v>43556</v>
       </c>
@@ -2162,7 +2166,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="38">
         <v>43586</v>
       </c>
@@ -2182,7 +2186,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="38">
         <v>43617</v>
       </c>
@@ -2202,7 +2206,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="38">
         <v>43647</v>
       </c>
@@ -2222,7 +2226,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="38">
         <v>43678</v>
       </c>
@@ -2242,7 +2246,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="45"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="38">
         <v>43709</v>
       </c>
@@ -2262,7 +2266,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="45"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="38">
         <v>43739</v>
       </c>
@@ -2282,7 +2286,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="38">
         <v>43770</v>
       </c>
@@ -2302,7 +2306,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="45"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="38">
         <v>43800</v>
       </c>
@@ -2322,7 +2326,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="45"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="44" t="s">
         <v>67</v>
       </c>
@@ -2340,7 +2344,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="38">
         <v>43831</v>
       </c>
@@ -2360,7 +2364,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="45"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="38">
         <v>43862</v>
       </c>
@@ -2380,7 +2384,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="38">
         <v>43891</v>
       </c>
@@ -2406,7 +2410,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="38">
         <v>43922</v>
       </c>
@@ -2426,7 +2430,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="38">
         <v>43952</v>
       </c>
@@ -2446,7 +2450,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="38">
         <v>43983</v>
       </c>
@@ -2466,7 +2470,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="38">
         <v>44013</v>
       </c>
@@ -2486,7 +2490,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="38">
         <v>44044</v>
       </c>
@@ -2506,7 +2510,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="45"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="38">
         <v>44075</v>
       </c>
@@ -2526,7 +2530,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="38">
         <v>44105</v>
       </c>
@@ -2546,7 +2550,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="38">
         <v>44136</v>
       </c>
@@ -2566,7 +2570,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="38">
         <v>44166</v>
       </c>
@@ -2590,7 +2594,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="44" t="s">
         <v>75</v>
       </c>
@@ -2608,7 +2612,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="38">
         <v>44197</v>
       </c>
@@ -2628,7 +2632,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="38">
         <v>44228</v>
       </c>
@@ -2648,7 +2652,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="38">
         <v>44256</v>
       </c>
@@ -2668,7 +2672,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="38">
         <v>44287</v>
       </c>
@@ -2688,7 +2692,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="38">
         <v>44317</v>
       </c>
@@ -2708,7 +2712,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="38">
         <v>44348</v>
       </c>
@@ -2728,7 +2732,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="45"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="38">
         <v>44378</v>
       </c>
@@ -2748,7 +2752,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="38">
         <v>44409</v>
       </c>
@@ -2768,7 +2772,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="38">
         <v>44440</v>
       </c>
@@ -2788,7 +2792,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="38">
         <v>44470</v>
       </c>
@@ -2808,7 +2812,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="38">
         <v>44501</v>
       </c>
@@ -2828,7 +2832,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="38">
         <v>44531</v>
       </c>
@@ -2854,7 +2858,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="38"/>
       <c r="B62" s="20" t="s">
         <v>74</v>
@@ -2874,7 +2878,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="44" t="s">
         <v>79</v>
       </c>
@@ -2892,7 +2896,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="38">
         <v>44562</v>
       </c>
@@ -2912,7 +2916,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="38">
         <f>EDATE(A64,1)</f>
         <v>44593</v>
@@ -2933,7 +2937,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="38">
         <f t="shared" ref="A66:A71" si="0">EDATE(A65,1)</f>
         <v>44621</v>
@@ -2954,7 +2958,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="38">
         <f t="shared" si="0"/>
         <v>44652</v>
@@ -2975,7 +2979,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="38">
         <f t="shared" si="0"/>
         <v>44682</v>
@@ -2996,7 +3000,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="38">
         <f t="shared" si="0"/>
         <v>44713</v>
@@ -3017,7 +3021,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="38">
         <f t="shared" si="0"/>
         <v>44743</v>
@@ -3038,7 +3042,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="38">
         <f t="shared" si="0"/>
         <v>44774</v>
@@ -3059,7 +3063,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="38">
         <v>44805</v>
       </c>
@@ -3079,7 +3083,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="38">
         <v>44835</v>
       </c>
@@ -3099,7 +3103,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="45"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="38">
         <v>44866</v>
       </c>
@@ -3119,7 +3123,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="38">
         <v>44896</v>
       </c>
@@ -3143,7 +3147,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="44" t="s">
         <v>84</v>
       </c>
@@ -3161,7 +3165,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="38">
         <v>44927</v>
       </c>
@@ -3181,7 +3185,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="38">
         <v>44958</v>
       </c>
@@ -3201,7 +3205,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="38">
         <v>44986</v>
       </c>
@@ -3221,7 +3225,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="38">
         <v>45017</v>
       </c>
@@ -3241,7 +3245,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="38">
         <v>45047</v>
       </c>
@@ -3261,22 +3265,27 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="38">
         <v>45078</v>
       </c>
       <c r="B82" s="20"/>
-      <c r="C82" s="13"/>
+      <c r="C82" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D82" s="37"/>
       <c r="E82" s="9"/>
       <c r="F82" s="20"/>
-      <c r="G82" s="13"/>
+      <c r="G82" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
       <c r="H82" s="37"/>
       <c r="I82" s="9"/>
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="38">
         <v>45108</v>
       </c>
@@ -3294,7 +3303,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="38">
         <v>45139</v>
       </c>
@@ -3312,7 +3321,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="38">
         <v>45170</v>
       </c>
@@ -3330,7 +3339,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="38">
         <v>45200</v>
       </c>
@@ -3348,7 +3357,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="38">
         <v>45231</v>
       </c>
@@ -3366,7 +3375,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="38">
         <v>45261</v>
       </c>
@@ -3384,7 +3393,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="38">
         <v>45292</v>
       </c>
@@ -3402,7 +3411,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="38"/>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
@@ -3418,7 +3427,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="38"/>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
@@ -3434,7 +3443,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="38"/>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
@@ -3450,7 +3459,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="38"/>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
@@ -3466,7 +3475,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="38"/>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
@@ -3482,7 +3491,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="38"/>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
@@ -3498,7 +3507,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="38"/>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
@@ -3514,14 +3523,14 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="39"/>
       <c r="B97" s="15"/>
       <c r="C97" s="40"/>
       <c r="D97" s="41"/>
       <c r="E97" s="9"/>
       <c r="F97" s="15"/>
-      <c r="G97" s="40" t="str">
+      <c r="G97" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
@@ -3545,10 +3554,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3571,34 +3580,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K77"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A54" activePane="bottomLeft"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3696" topLeftCell="A60" activePane="bottomLeft"/>
       <selection activeCell="F4" sqref="F4:G4"/>
-      <selection pane="bottomLeft" activeCell="K63" sqref="K63"/>
+      <selection pane="bottomLeft" activeCell="A64" sqref="A64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -3619,7 +3628,7 @@
       <c r="J2" s="52"/>
       <c r="K2" s="53"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -3639,7 +3648,7 @@
       <c r="J3" s="54"/>
       <c r="K3" s="55"/>
     </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -3661,7 +3670,7 @@
       <c r="J4" s="52"/>
       <c r="K4" s="53"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -3669,7 +3678,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -3682,7 +3691,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="50" t="s">
@@ -3699,7 +3708,7 @@
       <c r="J7" s="50"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3734,7 +3743,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -3753,12 +3762,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>55.957999999999998</v>
+        <v>53.957999999999998</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="44" t="s">
         <v>44</v>
       </c>
@@ -3780,7 +3789,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="38">
         <v>43160</v>
       </c>
@@ -3804,7 +3813,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="38">
         <v>43191</v>
       </c>
@@ -3828,7 +3837,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="39"/>
       <c r="B13" s="15" t="s">
         <v>47</v>
@@ -3850,7 +3859,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="38">
         <v>43221</v>
       </c>
@@ -3874,7 +3883,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="38">
         <v>43282</v>
       </c>
@@ -3898,7 +3907,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="38">
         <v>43344</v>
       </c>
@@ -3922,7 +3931,7 @@
         <v>43358</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="38">
         <v>43374</v>
       </c>
@@ -3944,7 +3953,7 @@
         <v>43402</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="38"/>
       <c r="B18" s="20" t="s">
         <v>56</v>
@@ -3964,7 +3973,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="38">
         <v>43405</v>
       </c>
@@ -3988,7 +3997,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="38"/>
       <c r="B20" s="20" t="s">
         <v>49</v>
@@ -4010,7 +4019,7 @@
         <v>43431</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="38"/>
       <c r="B21" s="20" t="s">
         <v>58</v>
@@ -4030,7 +4039,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="38">
         <v>43435</v>
       </c>
@@ -4052,7 +4061,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="44" t="s">
         <v>60</v>
       </c>
@@ -4070,7 +4079,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="38">
         <v>43497</v>
       </c>
@@ -4094,7 +4103,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="38">
         <v>43525</v>
       </c>
@@ -4118,7 +4127,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="38">
         <v>43647</v>
       </c>
@@ -4142,7 +4151,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="38">
         <v>43678</v>
       </c>
@@ -4166,7 +4175,7 @@
         <v>43680</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="38"/>
       <c r="B28" s="20" t="s">
         <v>54</v>
@@ -4186,7 +4195,7 @@
         <v>43690</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="38"/>
       <c r="B29" s="20" t="s">
         <v>47</v>
@@ -4208,7 +4217,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="38">
         <v>43709</v>
       </c>
@@ -4232,7 +4241,7 @@
         <v>43725</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="38">
         <v>43770</v>
       </c>
@@ -4256,7 +4265,7 @@
         <v>43781</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="38">
         <v>43800</v>
       </c>
@@ -4280,7 +4289,7 @@
         <v>43803</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="44" t="s">
         <v>67</v>
       </c>
@@ -4298,7 +4307,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="38">
         <v>43831</v>
       </c>
@@ -4322,7 +4331,7 @@
         <v>43839</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="38"/>
       <c r="B35" s="20" t="s">
         <v>47</v>
@@ -4344,7 +4353,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="38">
         <v>43862</v>
       </c>
@@ -4366,7 +4375,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="38"/>
       <c r="B37" s="20" t="s">
         <v>69</v>
@@ -4386,7 +4395,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="38">
         <v>44044</v>
       </c>
@@ -4410,7 +4419,7 @@
         <v>44062</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="38">
         <v>44075</v>
       </c>
@@ -4434,7 +4443,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="38">
         <v>44105</v>
       </c>
@@ -4456,7 +4465,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="44" t="s">
         <v>75</v>
       </c>
@@ -4474,7 +4483,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="38">
         <v>44228</v>
       </c>
@@ -4498,7 +4507,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="38">
         <v>44348</v>
       </c>
@@ -4522,7 +4531,7 @@
         <v>44376</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="44" t="s">
         <v>79</v>
       </c>
@@ -4540,7 +4549,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="38">
         <v>44562</v>
       </c>
@@ -4564,7 +4573,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="38">
         <v>44743</v>
       </c>
@@ -4588,7 +4597,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="38">
         <v>44805</v>
       </c>
@@ -4610,7 +4619,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="38"/>
       <c r="B48" s="20" t="s">
         <v>49</v>
@@ -4632,7 +4641,7 @@
         <v>44805</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="38">
         <v>44835</v>
       </c>
@@ -4656,7 +4665,7 @@
         <v>44854</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="38"/>
       <c r="B50" s="20" t="s">
         <v>54</v>
@@ -4676,7 +4685,7 @@
         <v>44863</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="38">
         <v>44896</v>
       </c>
@@ -4700,7 +4709,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="44" t="s">
         <v>84</v>
       </c>
@@ -4718,7 +4727,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="38">
         <v>44927</v>
       </c>
@@ -4742,7 +4751,7 @@
         <v>44945</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="38"/>
       <c r="B54" s="20" t="s">
         <v>49</v>
@@ -4764,7 +4773,7 @@
         <v>44944</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="38"/>
       <c r="B55" s="20" t="s">
         <v>49</v>
@@ -4786,7 +4795,7 @@
         <v>44933</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="38">
         <v>44958</v>
       </c>
@@ -4810,7 +4819,7 @@
         <v>44959</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="38">
         <v>44986</v>
       </c>
@@ -4834,7 +4843,7 @@
         <v>44989</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="38"/>
       <c r="B58" s="20" t="s">
         <v>45</v>
@@ -4856,7 +4865,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="38">
         <v>45017</v>
       </c>
@@ -4874,7 +4883,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="38">
         <v>45047</v>
       </c>
@@ -4898,7 +4907,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="38">
         <v>45078</v>
       </c>
@@ -4922,7 +4931,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="38"/>
       <c r="B62" s="20" t="s">
         <v>49</v>
@@ -4944,11 +4953,13 @@
         <v>45095</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="38">
         <v>45108</v>
       </c>
-      <c r="B63" s="20"/>
+      <c r="B63" s="20" t="s">
+        <v>47</v>
+      </c>
       <c r="C63" s="13"/>
       <c r="D63" s="37"/>
       <c r="E63" s="9"/>
@@ -4957,15 +4968,17 @@
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H63" s="37"/>
+      <c r="H63" s="37">
+        <v>2</v>
+      </c>
       <c r="I63" s="9"/>
       <c r="J63" s="11"/>
-      <c r="K63" s="20"/>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A64" s="38">
-        <v>45139</v>
-      </c>
+      <c r="K63" s="20" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A64" s="38"/>
       <c r="B64" s="20"/>
       <c r="C64" s="13"/>
       <c r="D64" s="37"/>
@@ -4980,10 +4993,8 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A65" s="38">
-        <v>45170</v>
-      </c>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A65" s="38"/>
       <c r="B65" s="20"/>
       <c r="C65" s="13"/>
       <c r="D65" s="37"/>
@@ -4998,10 +5009,8 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A66" s="38">
-        <v>45200</v>
-      </c>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A66" s="38"/>
       <c r="B66" s="20"/>
       <c r="C66" s="13"/>
       <c r="D66" s="37"/>
@@ -5016,10 +5025,8 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A67" s="38">
-        <v>45231</v>
-      </c>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A67" s="38"/>
       <c r="B67" s="20"/>
       <c r="C67" s="13"/>
       <c r="D67" s="37"/>
@@ -5034,10 +5041,8 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A68" s="38">
-        <v>45261</v>
-      </c>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A68" s="38"/>
       <c r="B68" s="20"/>
       <c r="C68" s="13"/>
       <c r="D68" s="37"/>
@@ -5052,10 +5057,8 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A69" s="38">
-        <v>45292</v>
-      </c>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A69" s="38"/>
       <c r="B69" s="20"/>
       <c r="C69" s="13"/>
       <c r="D69" s="37"/>
@@ -5070,7 +5073,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="38"/>
       <c r="B70" s="20"/>
       <c r="C70" s="13"/>
@@ -5086,7 +5089,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="38"/>
       <c r="B71" s="20"/>
       <c r="C71" s="13"/>
@@ -5102,7 +5105,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="38"/>
       <c r="B72" s="20"/>
       <c r="C72" s="13"/>
@@ -5118,7 +5121,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="38"/>
       <c r="B73" s="20"/>
       <c r="C73" s="13"/>
@@ -5134,7 +5137,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="38"/>
       <c r="B74" s="20"/>
       <c r="C74" s="13"/>
@@ -5150,7 +5153,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="38"/>
       <c r="B75" s="20"/>
       <c r="C75" s="13"/>
@@ -5166,7 +5169,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="38"/>
       <c r="B76" s="20"/>
       <c r="C76" s="13"/>
@@ -5182,7 +5185,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="39"/>
       <c r="B77" s="15"/>
       <c r="C77" s="40"/>
@@ -5200,23 +5203,23 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5239,28 +5242,28 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="46" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.88671875" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="46" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D1" s="58" t="s">
         <v>33</v>
       </c>
@@ -5273,7 +5276,7 @@
       <c r="K1" s="59"/>
       <c r="L1" s="59"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -5302,7 +5305,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="35">
         <v>151.958</v>
       </c>
@@ -5326,17 +5329,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>90</v>
       </c>
@@ -5360,10 +5363,10 @@
       <c r="K6" s="60"/>
       <c r="L6" s="60"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="9">
         <f>SUM('2018 LEAVE CREDITS'!E9,'2018 LEAVE CREDITS'!I9)</f>
-        <v>138.5</v>
+        <v>141</v>
       </c>
       <c r="C7" s="46">
         <v>1</v>
@@ -5391,7 +5394,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="46">
         <v>2</v>
       </c>
@@ -5417,7 +5420,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="46">
         <v>3</v>
       </c>
@@ -5443,7 +5446,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="46">
         <v>4</v>
       </c>
@@ -5469,7 +5472,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="46">
         <v>5</v>
       </c>
@@ -5495,7 +5498,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="46">
         <v>6</v>
       </c>
@@ -5521,7 +5524,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="46">
         <v>7</v>
       </c>
@@ -5547,7 +5550,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="46">
         <v>8</v>
       </c>
@@ -5573,7 +5576,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="46">
         <v>9</v>
       </c>
@@ -5593,7 +5596,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C16" s="46">
         <v>10</v>
       </c>
@@ -5613,7 +5616,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="46">
         <v>11</v>
       </c>
@@ -5633,7 +5636,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C18" s="46">
         <v>12</v>
       </c>
@@ -5654,7 +5657,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C19" s="46">
         <v>13</v>
       </c>
@@ -5675,7 +5678,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C20" s="46">
         <v>14</v>
       </c>
@@ -5696,7 +5699,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C21" s="46">
         <v>15</v>
       </c>
@@ -5717,7 +5720,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C22" s="46">
         <v>16</v>
       </c>
@@ -5738,7 +5741,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C23" s="46">
         <v>17</v>
       </c>
@@ -5759,7 +5762,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C24" s="46">
         <v>18</v>
       </c>
@@ -5780,7 +5783,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C25" s="46">
         <v>19</v>
       </c>
@@ -5801,7 +5804,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C26" s="46">
         <v>20</v>
       </c>
@@ -5822,7 +5825,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C27" s="46">
         <v>21</v>
       </c>
@@ -5843,7 +5846,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="46">
         <v>22</v>
       </c>
@@ -5864,7 +5867,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C29" s="46">
         <v>23</v>
       </c>
@@ -5885,7 +5888,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="46">
         <v>24</v>
       </c>
@@ -5906,7 +5909,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C31" s="46">
         <v>25</v>
       </c>
@@ -5927,7 +5930,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C32" s="46">
         <v>26</v>
       </c>
@@ -5948,7 +5951,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C33" s="46">
         <v>27</v>
       </c>
@@ -5969,7 +5972,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C34" s="46">
         <v>28</v>
       </c>
@@ -5990,7 +5993,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C35" s="46">
         <v>29</v>
       </c>
@@ -6011,7 +6014,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C36" s="46">
         <v>30</v>
       </c>
@@ -6032,7 +6035,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C37" s="46">
         <v>31</v>
       </c>
@@ -6053,7 +6056,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C38" s="46">
         <v>32</v>
       </c>
@@ -6062,7 +6065,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C39" s="46">
         <v>33</v>
       </c>
@@ -6071,7 +6074,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C40" s="46">
         <v>34</v>
       </c>
@@ -6080,7 +6083,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C41" s="46">
         <v>35</v>
       </c>
@@ -6089,7 +6092,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C42" s="46">
         <v>36</v>
       </c>
@@ -6098,7 +6101,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C43" s="46">
         <v>37</v>
       </c>
@@ -6107,7 +6110,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C44" s="46">
         <v>38</v>
       </c>
@@ -6116,7 +6119,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C45" s="46">
         <v>39</v>
       </c>
@@ -6125,7 +6128,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C46" s="46">
         <v>40</v>
       </c>
@@ -6134,7 +6137,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C47" s="46">
         <v>41</v>
       </c>
@@ -6143,7 +6146,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C48" s="46">
         <v>42</v>
       </c>
@@ -6152,7 +6155,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C49" s="46">
         <v>43</v>
       </c>
@@ -6161,7 +6164,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C50" s="46">
         <v>44</v>
       </c>
@@ -6170,7 +6173,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C51" s="46">
         <v>45</v>
       </c>
@@ -6179,7 +6182,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C52" s="46">
         <v>46</v>
       </c>
@@ -6188,7 +6191,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C53" s="46">
         <v>47</v>
       </c>
@@ -6197,7 +6200,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C54" s="46">
         <v>48</v>
       </c>
@@ -6206,7 +6209,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C55" s="46">
         <v>49</v>
       </c>
@@ -6215,7 +6218,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C56" s="46">
         <v>50</v>
       </c>
@@ -6224,7 +6227,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C57" s="46">
         <v>51</v>
       </c>
@@ -6233,7 +6236,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C58" s="46">
         <v>52</v>
       </c>
@@ -6242,7 +6245,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C59" s="46">
         <v>53</v>
       </c>
@@ -6251,7 +6254,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C60" s="46">
         <v>54</v>
       </c>
@@ -6260,7 +6263,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C61" s="46">
         <v>55</v>
       </c>
@@ -6269,7 +6272,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C62" s="46">
         <v>56</v>
       </c>
@@ -6278,7 +6281,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C63" s="46">
         <v>57</v>
       </c>
@@ -6287,7 +6290,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C64" s="46">
         <v>58</v>
       </c>
@@ -6296,7 +6299,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C65" s="46">
         <v>59</v>
       </c>
@@ -6305,7 +6308,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C66" s="46">
         <v>60</v>
       </c>
@@ -6314,7 +6317,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/NEW HR/RODRIGUEZ, NARCISO ENRIQUEZ.xlsx
+++ b/NEW HR/RODRIGUEZ, NARCISO ENRIQUEZ.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B58E70E-BE5E-44CD-AB48-98E09EB0D10A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="2018 LEAVE CREDITS" sheetId="1" r:id="rId1"/>
@@ -27,7 +26,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'2017 LEAVE BALANCE'!$1:$9</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'2018 LEAVE CREDITS'!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="96">
   <si>
     <t>PERIOD</t>
   </si>
@@ -322,12 +321,15 @@
   </si>
   <si>
     <t>6/25,29/2023</t>
+  </si>
+  <si>
+    <t>7/3,7/2023</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1237,7 +1239,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -1246,7 +1248,7 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
       <sheetData sheetId="2" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
@@ -1254,25 +1256,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K97" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K97" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="25"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="24"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="23"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="22"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="21">
+    <tableColumn id="1" name="PERIOD" dataDxfId="25"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="24"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="23"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="22"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="21">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="20"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="19">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="20"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="19">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="18"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="17">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="18"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="17">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="16"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="15"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="16"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1284,25 +1286,25 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table13" displayName="Table13" ref="A8:K77" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A8:K77" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1609,34 +1611,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K97"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3696" topLeftCell="A73" activePane="bottomLeft"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3690" topLeftCell="A67" activePane="bottomLeft"/>
       <selection activeCell="E9" sqref="E9"/>
-      <selection pane="bottomLeft" activeCell="F82" sqref="F82"/>
+      <selection pane="bottomLeft" activeCell="B83" sqref="B83"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -1657,7 +1659,7 @@
       <c r="J2" s="52"/>
       <c r="K2" s="53"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -1677,7 +1679,7 @@
       <c r="J3" s="54"/>
       <c r="K3" s="55"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -1697,7 +1699,7 @@
       <c r="J4" s="52"/>
       <c r="K4" s="53"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -1705,7 +1707,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -1718,7 +1720,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="50" t="s">
@@ -1735,7 +1737,7 @@
       <c r="J7" s="50"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -1770,7 +1772,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -1794,7 +1796,7 @@
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="44" t="s">
         <v>44</v>
       </c>
@@ -1816,7 +1818,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="38">
         <v>43101</v>
       </c>
@@ -1836,7 +1838,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="38">
         <v>43132</v>
       </c>
@@ -1856,7 +1858,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="38">
         <v>43160</v>
       </c>
@@ -1876,7 +1878,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="38">
         <v>43191</v>
       </c>
@@ -1896,7 +1898,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="38">
         <v>43221</v>
       </c>
@@ -1916,7 +1918,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="38">
         <v>43252</v>
       </c>
@@ -1936,7 +1938,7 @@
       <c r="J16" s="11"/>
       <c r="K16" s="20"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="38">
         <v>43282</v>
       </c>
@@ -1956,7 +1958,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="38">
         <v>43313</v>
       </c>
@@ -1976,7 +1978,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="38">
         <v>43344</v>
       </c>
@@ -1996,7 +1998,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="45"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="38">
         <v>43374</v>
       </c>
@@ -2022,7 +2024,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="38">
         <v>43405</v>
       </c>
@@ -2042,7 +2044,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="38">
         <v>43435</v>
       </c>
@@ -2062,7 +2064,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="44" t="s">
         <v>60</v>
       </c>
@@ -2080,7 +2082,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="38">
         <v>43466</v>
       </c>
@@ -2100,7 +2102,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="38">
         <v>43497</v>
       </c>
@@ -2126,7 +2128,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="38">
         <v>43525</v>
       </c>
@@ -2146,7 +2148,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="38">
         <v>43556</v>
       </c>
@@ -2166,7 +2168,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="38">
         <v>43586</v>
       </c>
@@ -2186,7 +2188,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="38">
         <v>43617</v>
       </c>
@@ -2206,7 +2208,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="38">
         <v>43647</v>
       </c>
@@ -2226,7 +2228,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="38">
         <v>43678</v>
       </c>
@@ -2246,7 +2248,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="45"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="38">
         <v>43709</v>
       </c>
@@ -2266,7 +2268,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="45"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="38">
         <v>43739</v>
       </c>
@@ -2286,7 +2288,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="38">
         <v>43770</v>
       </c>
@@ -2306,7 +2308,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="45"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="38">
         <v>43800</v>
       </c>
@@ -2326,7 +2328,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="45"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="44" t="s">
         <v>67</v>
       </c>
@@ -2344,7 +2346,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="38">
         <v>43831</v>
       </c>
@@ -2364,7 +2366,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="45"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="38">
         <v>43862</v>
       </c>
@@ -2384,7 +2386,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="38">
         <v>43891</v>
       </c>
@@ -2410,7 +2412,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="38">
         <v>43922</v>
       </c>
@@ -2430,7 +2432,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="38">
         <v>43952</v>
       </c>
@@ -2450,7 +2452,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="38">
         <v>43983</v>
       </c>
@@ -2470,7 +2472,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="38">
         <v>44013</v>
       </c>
@@ -2490,7 +2492,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="38">
         <v>44044</v>
       </c>
@@ -2510,7 +2512,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="45"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="38">
         <v>44075</v>
       </c>
@@ -2530,7 +2532,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="38">
         <v>44105</v>
       </c>
@@ -2550,7 +2552,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="38">
         <v>44136</v>
       </c>
@@ -2570,7 +2572,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="38">
         <v>44166</v>
       </c>
@@ -2594,7 +2596,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="44" t="s">
         <v>75</v>
       </c>
@@ -2612,7 +2614,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="38">
         <v>44197</v>
       </c>
@@ -2632,7 +2634,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="38">
         <v>44228</v>
       </c>
@@ -2652,7 +2654,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="38">
         <v>44256</v>
       </c>
@@ -2672,7 +2674,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="38">
         <v>44287</v>
       </c>
@@ -2692,7 +2694,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="38">
         <v>44317</v>
       </c>
@@ -2712,7 +2714,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="38">
         <v>44348</v>
       </c>
@@ -2732,7 +2734,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="45"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="38">
         <v>44378</v>
       </c>
@@ -2752,7 +2754,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="38">
         <v>44409</v>
       </c>
@@ -2772,7 +2774,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="38">
         <v>44440</v>
       </c>
@@ -2792,7 +2794,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="38">
         <v>44470</v>
       </c>
@@ -2812,7 +2814,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="38">
         <v>44501</v>
       </c>
@@ -2832,7 +2834,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="38">
         <v>44531</v>
       </c>
@@ -2858,7 +2860,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="38"/>
       <c r="B62" s="20" t="s">
         <v>74</v>
@@ -2878,7 +2880,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="44" t="s">
         <v>79</v>
       </c>
@@ -2896,7 +2898,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="38">
         <v>44562</v>
       </c>
@@ -2916,7 +2918,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="38">
         <f>EDATE(A64,1)</f>
         <v>44593</v>
@@ -2937,7 +2939,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="38">
         <f t="shared" ref="A66:A71" si="0">EDATE(A65,1)</f>
         <v>44621</v>
@@ -2958,7 +2960,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="38">
         <f t="shared" si="0"/>
         <v>44652</v>
@@ -2979,7 +2981,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="38">
         <f t="shared" si="0"/>
         <v>44682</v>
@@ -3000,7 +3002,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="38">
         <f t="shared" si="0"/>
         <v>44713</v>
@@ -3021,7 +3023,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="38">
         <f t="shared" si="0"/>
         <v>44743</v>
@@ -3042,7 +3044,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="38">
         <f t="shared" si="0"/>
         <v>44774</v>
@@ -3063,7 +3065,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="38">
         <v>44805</v>
       </c>
@@ -3083,7 +3085,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="38">
         <v>44835</v>
       </c>
@@ -3103,7 +3105,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="45"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="38">
         <v>44866</v>
       </c>
@@ -3123,7 +3125,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="38">
         <v>44896</v>
       </c>
@@ -3147,7 +3149,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="44" t="s">
         <v>84</v>
       </c>
@@ -3165,7 +3167,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="38">
         <v>44927</v>
       </c>
@@ -3185,7 +3187,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="38">
         <v>44958</v>
       </c>
@@ -3205,7 +3207,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="38">
         <v>44986</v>
       </c>
@@ -3225,7 +3227,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="38">
         <v>45017</v>
       </c>
@@ -3245,7 +3247,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="38">
         <v>45047</v>
       </c>
@@ -3265,7 +3267,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="38">
         <v>45078</v>
       </c>
@@ -3285,7 +3287,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="38">
         <v>45108</v>
       </c>
@@ -3303,7 +3305,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="38">
         <v>45139</v>
       </c>
@@ -3321,7 +3323,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="38">
         <v>45170</v>
       </c>
@@ -3339,7 +3341,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="38">
         <v>45200</v>
       </c>
@@ -3357,7 +3359,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="38">
         <v>45231</v>
       </c>
@@ -3375,7 +3377,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="38">
         <v>45261</v>
       </c>
@@ -3393,7 +3395,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="38">
         <v>45292</v>
       </c>
@@ -3411,7 +3413,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="38"/>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
@@ -3427,7 +3429,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="38"/>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
@@ -3443,7 +3445,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="38"/>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
@@ -3459,7 +3461,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="38"/>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
@@ -3475,7 +3477,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="38"/>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
@@ -3491,7 +3493,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="38"/>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
@@ -3507,7 +3509,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="38"/>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
@@ -3523,7 +3525,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="39"/>
       <c r="B97" s="15"/>
       <c r="C97" s="40"/>
@@ -3554,10 +3556,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3580,34 +3582,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K77"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3696" topLeftCell="A60" activePane="bottomLeft"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3690" topLeftCell="A60" activePane="bottomLeft"/>
       <selection activeCell="F4" sqref="F4:G4"/>
-      <selection pane="bottomLeft" activeCell="A64" sqref="A64"/>
+      <selection pane="bottomLeft" activeCell="K64" sqref="K64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -3628,7 +3630,7 @@
       <c r="J2" s="52"/>
       <c r="K2" s="53"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -3648,7 +3650,7 @@
       <c r="J3" s="54"/>
       <c r="K3" s="55"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -3670,7 +3672,7 @@
       <c r="J4" s="52"/>
       <c r="K4" s="53"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -3678,7 +3680,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -3691,7 +3693,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="50" t="s">
@@ -3708,7 +3710,7 @@
       <c r="J7" s="50"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3743,7 +3745,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -3762,12 +3764,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>53.957999999999998</v>
+        <v>51.957999999999998</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="44" t="s">
         <v>44</v>
       </c>
@@ -3789,7 +3791,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="38">
         <v>43160</v>
       </c>
@@ -3813,7 +3815,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="38">
         <v>43191</v>
       </c>
@@ -3837,7 +3839,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="39"/>
       <c r="B13" s="15" t="s">
         <v>47</v>
@@ -3859,7 +3861,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="38">
         <v>43221</v>
       </c>
@@ -3883,7 +3885,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="38">
         <v>43282</v>
       </c>
@@ -3907,7 +3909,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="38">
         <v>43344</v>
       </c>
@@ -3931,7 +3933,7 @@
         <v>43358</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="38">
         <v>43374</v>
       </c>
@@ -3953,7 +3955,7 @@
         <v>43402</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="38"/>
       <c r="B18" s="20" t="s">
         <v>56</v>
@@ -3973,7 +3975,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="38">
         <v>43405</v>
       </c>
@@ -3997,7 +3999,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="38"/>
       <c r="B20" s="20" t="s">
         <v>49</v>
@@ -4019,7 +4021,7 @@
         <v>43431</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="38"/>
       <c r="B21" s="20" t="s">
         <v>58</v>
@@ -4039,7 +4041,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="38">
         <v>43435</v>
       </c>
@@ -4061,7 +4063,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="44" t="s">
         <v>60</v>
       </c>
@@ -4079,7 +4081,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="38">
         <v>43497</v>
       </c>
@@ -4103,7 +4105,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="38">
         <v>43525</v>
       </c>
@@ -4127,7 +4129,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="38">
         <v>43647</v>
       </c>
@@ -4151,7 +4153,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="38">
         <v>43678</v>
       </c>
@@ -4175,7 +4177,7 @@
         <v>43680</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="38"/>
       <c r="B28" s="20" t="s">
         <v>54</v>
@@ -4195,7 +4197,7 @@
         <v>43690</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="38"/>
       <c r="B29" s="20" t="s">
         <v>47</v>
@@ -4217,7 +4219,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="38">
         <v>43709</v>
       </c>
@@ -4241,7 +4243,7 @@
         <v>43725</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="38">
         <v>43770</v>
       </c>
@@ -4265,7 +4267,7 @@
         <v>43781</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="38">
         <v>43800</v>
       </c>
@@ -4289,7 +4291,7 @@
         <v>43803</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="44" t="s">
         <v>67</v>
       </c>
@@ -4307,7 +4309,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="38">
         <v>43831</v>
       </c>
@@ -4331,7 +4333,7 @@
         <v>43839</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="38"/>
       <c r="B35" s="20" t="s">
         <v>47</v>
@@ -4353,7 +4355,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="38">
         <v>43862</v>
       </c>
@@ -4375,7 +4377,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="38"/>
       <c r="B37" s="20" t="s">
         <v>69</v>
@@ -4395,7 +4397,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="38">
         <v>44044</v>
       </c>
@@ -4419,7 +4421,7 @@
         <v>44062</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="38">
         <v>44075</v>
       </c>
@@ -4443,7 +4445,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="38">
         <v>44105</v>
       </c>
@@ -4465,7 +4467,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="44" t="s">
         <v>75</v>
       </c>
@@ -4483,7 +4485,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="38">
         <v>44228</v>
       </c>
@@ -4507,7 +4509,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="38">
         <v>44348</v>
       </c>
@@ -4531,7 +4533,7 @@
         <v>44376</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="44" t="s">
         <v>79</v>
       </c>
@@ -4549,7 +4551,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="38">
         <v>44562</v>
       </c>
@@ -4573,7 +4575,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="38">
         <v>44743</v>
       </c>
@@ -4597,7 +4599,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="38">
         <v>44805</v>
       </c>
@@ -4619,7 +4621,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="38"/>
       <c r="B48" s="20" t="s">
         <v>49</v>
@@ -4641,7 +4643,7 @@
         <v>44805</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="38">
         <v>44835</v>
       </c>
@@ -4665,7 +4667,7 @@
         <v>44854</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="38"/>
       <c r="B50" s="20" t="s">
         <v>54</v>
@@ -4685,7 +4687,7 @@
         <v>44863</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="38">
         <v>44896</v>
       </c>
@@ -4709,7 +4711,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="44" t="s">
         <v>84</v>
       </c>
@@ -4727,7 +4729,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="38">
         <v>44927</v>
       </c>
@@ -4751,7 +4753,7 @@
         <v>44945</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="38"/>
       <c r="B54" s="20" t="s">
         <v>49</v>
@@ -4773,7 +4775,7 @@
         <v>44944</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="38"/>
       <c r="B55" s="20" t="s">
         <v>49</v>
@@ -4795,7 +4797,7 @@
         <v>44933</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="38">
         <v>44958</v>
       </c>
@@ -4819,7 +4821,7 @@
         <v>44959</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="38">
         <v>44986</v>
       </c>
@@ -4843,7 +4845,7 @@
         <v>44989</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="38"/>
       <c r="B58" s="20" t="s">
         <v>45</v>
@@ -4865,7 +4867,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="38">
         <v>45017</v>
       </c>
@@ -4883,7 +4885,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="38">
         <v>45047</v>
       </c>
@@ -4907,7 +4909,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="38">
         <v>45078</v>
       </c>
@@ -4931,7 +4933,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="38"/>
       <c r="B62" s="20" t="s">
         <v>49</v>
@@ -4953,7 +4955,7 @@
         <v>45095</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="38">
         <v>45108</v>
       </c>
@@ -4977,9 +4979,11 @@
         <v>94</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="38"/>
-      <c r="B64" s="20"/>
+      <c r="B64" s="20" t="s">
+        <v>47</v>
+      </c>
       <c r="C64" s="13"/>
       <c r="D64" s="37"/>
       <c r="E64" s="9"/>
@@ -4988,12 +4992,16 @@
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H64" s="37"/>
+      <c r="H64" s="37">
+        <v>2</v>
+      </c>
       <c r="I64" s="9"/>
       <c r="J64" s="11"/>
-      <c r="K64" s="20"/>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K64" s="20" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="38"/>
       <c r="B65" s="20"/>
       <c r="C65" s="13"/>
@@ -5009,7 +5017,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="38"/>
       <c r="B66" s="20"/>
       <c r="C66" s="13"/>
@@ -5025,7 +5033,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="38"/>
       <c r="B67" s="20"/>
       <c r="C67" s="13"/>
@@ -5041,7 +5049,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="38"/>
       <c r="B68" s="20"/>
       <c r="C68" s="13"/>
@@ -5057,7 +5065,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="38"/>
       <c r="B69" s="20"/>
       <c r="C69" s="13"/>
@@ -5073,7 +5081,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="38"/>
       <c r="B70" s="20"/>
       <c r="C70" s="13"/>
@@ -5089,7 +5097,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="38"/>
       <c r="B71" s="20"/>
       <c r="C71" s="13"/>
@@ -5105,7 +5113,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="38"/>
       <c r="B72" s="20"/>
       <c r="C72" s="13"/>
@@ -5121,7 +5129,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="38"/>
       <c r="B73" s="20"/>
       <c r="C73" s="13"/>
@@ -5137,7 +5145,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="38"/>
       <c r="B74" s="20"/>
       <c r="C74" s="13"/>
@@ -5153,7 +5161,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="38"/>
       <c r="B75" s="20"/>
       <c r="C75" s="13"/>
@@ -5169,7 +5177,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="38"/>
       <c r="B76" s="20"/>
       <c r="C76" s="13"/>
@@ -5185,7 +5193,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="39"/>
       <c r="B77" s="15"/>
       <c r="C77" s="40"/>
@@ -5203,23 +5211,23 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5242,28 +5250,28 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.88671875" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="46" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.88671875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="46" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="58" t="s">
         <v>33</v>
       </c>
@@ -5276,7 +5284,7 @@
       <c r="K1" s="59"/>
       <c r="L1" s="59"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -5305,7 +5313,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="35">
         <v>151.958</v>
       </c>
@@ -5329,17 +5337,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>90</v>
       </c>
@@ -5363,7 +5371,7 @@
       <c r="K6" s="60"/>
       <c r="L6" s="60"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
         <f>SUM('2018 LEAVE CREDITS'!E9,'2018 LEAVE CREDITS'!I9)</f>
         <v>141</v>
@@ -5394,7 +5402,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="46">
         <v>2</v>
       </c>
@@ -5420,7 +5428,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="46">
         <v>3</v>
       </c>
@@ -5446,7 +5454,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="46">
         <v>4</v>
       </c>
@@ -5472,7 +5480,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="46">
         <v>5</v>
       </c>
@@ -5498,7 +5506,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="46">
         <v>6</v>
       </c>
@@ -5524,7 +5532,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="46">
         <v>7</v>
       </c>
@@ -5550,7 +5558,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="46">
         <v>8</v>
       </c>
@@ -5576,7 +5584,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="46">
         <v>9</v>
       </c>
@@ -5596,7 +5604,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="46">
         <v>10</v>
       </c>
@@ -5616,7 +5624,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="46">
         <v>11</v>
       </c>
@@ -5636,7 +5644,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="46">
         <v>12</v>
       </c>
@@ -5657,7 +5665,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="46">
         <v>13</v>
       </c>
@@ -5678,7 +5686,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="46">
         <v>14</v>
       </c>
@@ -5699,7 +5707,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="46">
         <v>15</v>
       </c>
@@ -5720,7 +5728,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="46">
         <v>16</v>
       </c>
@@ -5741,7 +5749,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="46">
         <v>17</v>
       </c>
@@ -5762,7 +5770,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="46">
         <v>18</v>
       </c>
@@ -5783,7 +5791,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="46">
         <v>19</v>
       </c>
@@ -5804,7 +5812,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="46">
         <v>20</v>
       </c>
@@ -5825,7 +5833,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="46">
         <v>21</v>
       </c>
@@ -5846,7 +5854,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="46">
         <v>22</v>
       </c>
@@ -5867,7 +5875,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="46">
         <v>23</v>
       </c>
@@ -5888,7 +5896,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="46">
         <v>24</v>
       </c>
@@ -5909,7 +5917,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="46">
         <v>25</v>
       </c>
@@ -5930,7 +5938,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="46">
         <v>26</v>
       </c>
@@ -5951,7 +5959,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="46">
         <v>27</v>
       </c>
@@ -5972,7 +5980,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="46">
         <v>28</v>
       </c>
@@ -5993,7 +6001,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="46">
         <v>29</v>
       </c>
@@ -6014,7 +6022,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="46">
         <v>30</v>
       </c>
@@ -6035,7 +6043,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="46">
         <v>31</v>
       </c>
@@ -6056,7 +6064,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="46">
         <v>32</v>
       </c>
@@ -6065,7 +6073,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="46">
         <v>33</v>
       </c>
@@ -6074,7 +6082,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="46">
         <v>34</v>
       </c>
@@ -6083,7 +6091,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="46">
         <v>35</v>
       </c>
@@ -6092,7 +6100,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="46">
         <v>36</v>
       </c>
@@ -6101,7 +6109,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="46">
         <v>37</v>
       </c>
@@ -6110,7 +6118,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="46">
         <v>38</v>
       </c>
@@ -6119,7 +6127,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="46">
         <v>39</v>
       </c>
@@ -6128,7 +6136,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="46">
         <v>40</v>
       </c>
@@ -6137,7 +6145,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="46">
         <v>41</v>
       </c>
@@ -6146,7 +6154,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="46">
         <v>42</v>
       </c>
@@ -6155,7 +6163,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="46">
         <v>43</v>
       </c>
@@ -6164,7 +6172,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="46">
         <v>44</v>
       </c>
@@ -6173,7 +6181,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="46">
         <v>45</v>
       </c>
@@ -6182,7 +6190,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="46">
         <v>46</v>
       </c>
@@ -6191,7 +6199,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="46">
         <v>47</v>
       </c>
@@ -6200,7 +6208,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="46">
         <v>48</v>
       </c>
@@ -6209,7 +6217,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="46">
         <v>49</v>
       </c>
@@ -6218,7 +6226,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="46">
         <v>50</v>
       </c>
@@ -6227,7 +6235,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="46">
         <v>51</v>
       </c>
@@ -6236,7 +6244,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="46">
         <v>52</v>
       </c>
@@ -6245,7 +6253,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="46">
         <v>53</v>
       </c>
@@ -6254,7 +6262,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="46">
         <v>54</v>
       </c>
@@ -6263,7 +6271,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="46">
         <v>55</v>
       </c>
@@ -6272,7 +6280,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="46">
         <v>56</v>
       </c>
@@ -6281,7 +6289,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="46">
         <v>57</v>
       </c>
@@ -6290,7 +6298,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="46">
         <v>58</v>
       </c>
@@ -6299,7 +6307,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="46">
         <v>59</v>
       </c>
@@ -6308,7 +6316,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="46">
         <v>60</v>
       </c>
@@ -6317,7 +6325,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/NEW HR/RODRIGUEZ, NARCISO ENRIQUEZ.xlsx
+++ b/NEW HR/RODRIGUEZ, NARCISO ENRIQUEZ.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\NEW HR\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="100">
   <si>
     <t>PERIOD</t>
   </si>
@@ -324,6 +324,18 @@
   </si>
   <si>
     <t>7/3,7/2023</t>
+  </si>
+  <si>
+    <t>7/13,14/2023</t>
+  </si>
+  <si>
+    <t>SP(2-0-0)</t>
+  </si>
+  <si>
+    <t>7/17,19/2023</t>
+  </si>
+  <si>
+    <t>8/1-3/2023</t>
   </si>
 </sst>
 </file>
@@ -3589,9 +3601,9 @@
   <dimension ref="A2:K77"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A60" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A51" activePane="bottomLeft"/>
       <selection activeCell="F4" sqref="F4:G4"/>
-      <selection pane="bottomLeft" activeCell="K64" sqref="K64"/>
+      <selection pane="bottomLeft" activeCell="E67" sqref="E67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3754,7 +3766,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>133.114</v>
+        <v>130.114</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3764,7 +3776,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>51.957999999999998</v>
+        <v>49.957999999999998</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -5003,7 +5015,9 @@
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="38"/>
-      <c r="B65" s="20"/>
+      <c r="B65" s="20" t="s">
+        <v>47</v>
+      </c>
       <c r="C65" s="13"/>
       <c r="D65" s="37"/>
       <c r="E65" s="9"/>
@@ -5012,14 +5026,20 @@
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H65" s="37"/>
+      <c r="H65" s="37">
+        <v>2</v>
+      </c>
       <c r="I65" s="9"/>
       <c r="J65" s="11"/>
-      <c r="K65" s="20"/>
+      <c r="K65" s="20" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="38"/>
-      <c r="B66" s="20"/>
+      <c r="B66" s="20" t="s">
+        <v>97</v>
+      </c>
       <c r="C66" s="13"/>
       <c r="D66" s="37"/>
       <c r="E66" s="9"/>
@@ -5031,13 +5051,19 @@
       <c r="H66" s="37"/>
       <c r="I66" s="9"/>
       <c r="J66" s="11"/>
-      <c r="K66" s="20"/>
+      <c r="K66" s="20" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="38"/>
-      <c r="B67" s="20"/>
+      <c r="B67" s="20" t="s">
+        <v>45</v>
+      </c>
       <c r="C67" s="13"/>
-      <c r="D67" s="37"/>
+      <c r="D67" s="37">
+        <v>3</v>
+      </c>
       <c r="E67" s="9"/>
       <c r="F67" s="20"/>
       <c r="G67" s="13" t="str">
@@ -5047,7 +5073,9 @@
       <c r="H67" s="37"/>
       <c r="I67" s="9"/>
       <c r="J67" s="11"/>
-      <c r="K67" s="20"/>
+      <c r="K67" s="20" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="38"/>
@@ -5211,17 +5239,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">

--- a/NEW HR/RODRIGUEZ, NARCISO ENRIQUEZ.xlsx
+++ b/NEW HR/RODRIGUEZ, NARCISO ENRIQUEZ.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="105">
   <si>
     <t>PERIOD</t>
   </si>
@@ -336,6 +336,21 @@
   </si>
   <si>
     <t>8/1-3/2023</t>
+  </si>
+  <si>
+    <t>8/12,15/2023</t>
+  </si>
+  <si>
+    <t>8/22-24/2023</t>
+  </si>
+  <si>
+    <t>8/31 , 9/2/2023</t>
+  </si>
+  <si>
+    <t>9/27-29/2023</t>
+  </si>
+  <si>
+    <t>9/19-21/2023</t>
   </si>
 </sst>
 </file>
@@ -1632,7 +1647,7 @@
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A67" activePane="bottomLeft"/>
       <selection activeCell="E9" sqref="E9"/>
-      <selection pane="bottomLeft" activeCell="B83" sqref="B83"/>
+      <selection pane="bottomLeft" activeCell="F90" sqref="F90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1793,7 +1808,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])</f>
-        <v>58.5</v>
+        <v>62.25</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -1803,7 +1818,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])</f>
-        <v>82.5</v>
+        <v>86.25</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -3304,13 +3319,15 @@
         <v>45108</v>
       </c>
       <c r="B83" s="20"/>
-      <c r="C83" s="13"/>
+      <c r="C83" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D83" s="37"/>
       <c r="E83" s="9"/>
       <c r="F83" s="20"/>
-      <c r="G83" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G83" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H83" s="37"/>
       <c r="I83" s="9"/>
@@ -3322,13 +3339,15 @@
         <v>45139</v>
       </c>
       <c r="B84" s="20"/>
-      <c r="C84" s="13"/>
+      <c r="C84" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D84" s="37"/>
       <c r="E84" s="9"/>
       <c r="F84" s="20"/>
-      <c r="G84" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G84" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H84" s="37"/>
       <c r="I84" s="9"/>
@@ -3340,13 +3359,15 @@
         <v>45170</v>
       </c>
       <c r="B85" s="20"/>
-      <c r="C85" s="13"/>
+      <c r="C85" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D85" s="37"/>
       <c r="E85" s="9"/>
       <c r="F85" s="20"/>
-      <c r="G85" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G85" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H85" s="37"/>
       <c r="I85" s="9"/>
@@ -3601,9 +3622,9 @@
   <dimension ref="A2:K77"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A51" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A54" activePane="bottomLeft"/>
       <selection activeCell="F4" sqref="F4:G4"/>
-      <selection pane="bottomLeft" activeCell="E67" sqref="E67"/>
+      <selection pane="bottomLeft" activeCell="K74" sqref="K74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3766,7 +3787,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>130.114</v>
+        <v>119.114</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3776,7 +3797,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>49.957999999999998</v>
+        <v>45.957999999999998</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -5078,8 +5099,12 @@
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A68" s="38"/>
-      <c r="B68" s="20"/>
+      <c r="A68" s="38">
+        <v>45153</v>
+      </c>
+      <c r="B68" s="20" t="s">
+        <v>49</v>
+      </c>
       <c r="C68" s="13"/>
       <c r="D68" s="37"/>
       <c r="E68" s="9"/>
@@ -5088,16 +5113,24 @@
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H68" s="37"/>
+      <c r="H68" s="37">
+        <v>1</v>
+      </c>
       <c r="I68" s="9"/>
       <c r="J68" s="11"/>
-      <c r="K68" s="20"/>
+      <c r="K68" s="45">
+        <v>45143</v>
+      </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="38"/>
-      <c r="B69" s="20"/>
+      <c r="B69" s="20" t="s">
+        <v>87</v>
+      </c>
       <c r="C69" s="13"/>
-      <c r="D69" s="37"/>
+      <c r="D69" s="37">
+        <v>2</v>
+      </c>
       <c r="E69" s="9"/>
       <c r="F69" s="20"/>
       <c r="G69" s="13" t="str">
@@ -5107,11 +5140,15 @@
       <c r="H69" s="37"/>
       <c r="I69" s="9"/>
       <c r="J69" s="11"/>
-      <c r="K69" s="20"/>
+      <c r="K69" s="20" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="38"/>
-      <c r="B70" s="20"/>
+      <c r="B70" s="20" t="s">
+        <v>49</v>
+      </c>
       <c r="C70" s="13"/>
       <c r="D70" s="37"/>
       <c r="E70" s="9"/>
@@ -5120,16 +5157,24 @@
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H70" s="37"/>
+      <c r="H70" s="37">
+        <v>1</v>
+      </c>
       <c r="I70" s="9"/>
       <c r="J70" s="11"/>
-      <c r="K70" s="20"/>
+      <c r="K70" s="45">
+        <v>45151</v>
+      </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="38"/>
-      <c r="B71" s="20"/>
+      <c r="B71" s="20" t="s">
+        <v>45</v>
+      </c>
       <c r="C71" s="13"/>
-      <c r="D71" s="37"/>
+      <c r="D71" s="37">
+        <v>3</v>
+      </c>
       <c r="E71" s="9"/>
       <c r="F71" s="20"/>
       <c r="G71" s="13" t="str">
@@ -5139,11 +5184,17 @@
       <c r="H71" s="37"/>
       <c r="I71" s="9"/>
       <c r="J71" s="11"/>
-      <c r="K71" s="20"/>
+      <c r="K71" s="20" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A72" s="38"/>
-      <c r="B72" s="20"/>
+      <c r="A72" s="38">
+        <v>45170</v>
+      </c>
+      <c r="B72" s="20" t="s">
+        <v>47</v>
+      </c>
       <c r="C72" s="13"/>
       <c r="D72" s="37"/>
       <c r="E72" s="9"/>
@@ -5152,16 +5203,24 @@
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H72" s="37"/>
+      <c r="H72" s="37">
+        <v>2</v>
+      </c>
       <c r="I72" s="9"/>
       <c r="J72" s="11"/>
-      <c r="K72" s="20"/>
+      <c r="K72" s="20" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="38"/>
-      <c r="B73" s="20"/>
+      <c r="B73" s="20" t="s">
+        <v>45</v>
+      </c>
       <c r="C73" s="13"/>
-      <c r="D73" s="37"/>
+      <c r="D73" s="37">
+        <v>3</v>
+      </c>
       <c r="E73" s="9"/>
       <c r="F73" s="20"/>
       <c r="G73" s="13" t="str">
@@ -5171,13 +5230,19 @@
       <c r="H73" s="37"/>
       <c r="I73" s="9"/>
       <c r="J73" s="11"/>
-      <c r="K73" s="20"/>
+      <c r="K73" s="20" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="38"/>
-      <c r="B74" s="20"/>
+      <c r="B74" s="20" t="s">
+        <v>45</v>
+      </c>
       <c r="C74" s="13"/>
-      <c r="D74" s="37"/>
+      <c r="D74" s="37">
+        <v>3</v>
+      </c>
       <c r="E74" s="9"/>
       <c r="F74" s="20"/>
       <c r="G74" s="13" t="str">
@@ -5187,7 +5252,9 @@
       <c r="H74" s="37"/>
       <c r="I74" s="9"/>
       <c r="J74" s="11"/>
-      <c r="K74" s="20"/>
+      <c r="K74" s="20" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="38"/>
@@ -5239,17 +5306,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
@@ -5402,7 +5469,7 @@
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
         <f>SUM('2018 LEAVE CREDITS'!E9,'2018 LEAVE CREDITS'!I9)</f>
-        <v>141</v>
+        <v>148.5</v>
       </c>
       <c r="C7" s="46">
         <v>1</v>
